--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Укажите основной состав изделия!!</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите самый большой размер изделия в комплетке X! </t>
+    <t xml:space="preserve">Укажите самый большой размер изделия в комплетке X, см! </t>
   </si>
   <si>
     <r>
@@ -194,7 +194,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Y! </t>
+      <t xml:space="preserve"> Y, см! </t>
     </r>
   </si>
   <si>
@@ -3187,11 +3187,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1701"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1694" activeCellId="0" sqref="P1694"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33951,11 +33951,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -35931,7 +35931,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="680">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -455,247 +455,250 @@
     <t xml:space="preserve">АНДОРРА</t>
   </si>
   <si>
+    <t xml:space="preserve">КОМПЛЕКТ ПОЛОТЕНЕЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОБЕЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТАРКТИДА</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
   </si>
   <si>
-    <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОБЕЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТАРКТИДА</t>
+    <t xml:space="preserve">БОРДОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАМАСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер Регламента/стандарта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
   </si>
   <si>
     <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
   </si>
   <si>
-    <t xml:space="preserve">БОРДОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАМАСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер Регламента/стандарта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
+    <t xml:space="preserve">БРОНЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖЕРСИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРГЕНТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
   </si>
   <si>
     <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">БРОНЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖЕРСИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРГЕНТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
+    <t xml:space="preserve">ВАНИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖАККАРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРМЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
     <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
   </si>
   <si>
-    <t xml:space="preserve">ВАНИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖАККАРД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
+    <t xml:space="preserve">ВИШНЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЛИРНАЯ ГЛАДЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действие технических регламентов не распространяется</t>
   </si>
   <si>
     <t xml:space="preserve">ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
   </si>
   <si>
-    <t xml:space="preserve">ВИШНЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУЛИРНАЯ ГЛАДЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действие технических регламентов не распространяется</t>
+    <t xml:space="preserve">ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЬНЯНАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АФГАНИСТАН</t>
   </si>
   <si>
     <t xml:space="preserve">ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЬНЯНАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АФГАНИСТАН</t>
+    <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКО-САТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАГАМЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
   </si>
   <si>
-    <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКО-САТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАГАМЫ</t>
+    <t xml:space="preserve">ГРАФИТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАХРОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНГЛАДЕШ</t>
   </si>
   <si>
     <t xml:space="preserve">КОВРИК</t>
   </si>
   <si>
-    <t xml:space="preserve">ГРАФИТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАХРОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНГЛАДЕШ</t>
+    <t xml:space="preserve">ЖЁЛТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРБАДОС</t>
   </si>
   <si>
     <t xml:space="preserve">ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЖЁЛТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРБАДОС</t>
+    <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОПОЛИЕСТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАХРЕЙН</t>
   </si>
   <si>
     <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОПОЛИЕСТР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАХРЕЙН</t>
+    <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОСАТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛИЗ</t>
   </si>
   <si>
     <t xml:space="preserve">АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОСАТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛИЗ</t>
+    <t xml:space="preserve">ЗОЛОТОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОФИБРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ДОРОЖКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗОЛОТОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОФИБРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОФРЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЬГИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОФРЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЬГИЯ</t>
+    <t xml:space="preserve">КАПУЧИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОДАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕНИН</t>
   </si>
   <si>
     <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
   </si>
   <si>
-    <t xml:space="preserve">КАПУЧИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОДАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕНИН</t>
+    <t xml:space="preserve">КИРПИЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЛЕТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕРМУДЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ СТУЛА</t>
   </si>
   <si>
-    <t xml:space="preserve">КИРПИЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МУЛЕТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕРМУДЫ</t>
+    <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕТКАНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛГАРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТКАНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛГАРИЯ</t>
+    <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРГАНЗА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛИВИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРГАНЗА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛИВИЯ</t>
+    <t xml:space="preserve">КОФЕЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРИОТЕК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
   </si>
   <si>
     <t xml:space="preserve">САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
   </si>
   <si>
-    <t xml:space="preserve">КОФЕЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРИОТЕК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
+    <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРКАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОТСВАНА</t>
   </si>
   <si>
     <t xml:space="preserve">СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРКАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОТСВАНА</t>
   </si>
   <si>
     <t xml:space="preserve">КРАСНЫЙ</t>
@@ -3185,13 +3188,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1701"/>
+  <dimension ref="A1:AMJ1752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="F1744" activeCellId="0" sqref="F1744"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -33321,6 +33324,7 @@
       <c r="S1606" s="2"/>
     </row>
     <row r="1607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1607" s="17"/>
       <c r="G1607" s="17"/>
       <c r="P1607" s="17"/>
       <c r="Q1607" s="22"/>
@@ -33328,6 +33332,7 @@
       <c r="S1607" s="2"/>
     </row>
     <row r="1608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1608" s="17"/>
       <c r="G1608" s="17"/>
       <c r="P1608" s="17"/>
       <c r="Q1608" s="22"/>
@@ -33335,556 +33340,802 @@
       <c r="S1608" s="2"/>
     </row>
     <row r="1609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1609" s="17"/>
       <c r="P1609" s="17"/>
       <c r="Q1609" s="22"/>
       <c r="R1609" s="2"/>
       <c r="S1609" s="2"/>
     </row>
     <row r="1610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1610" s="17"/>
       <c r="P1610" s="17"/>
       <c r="Q1610" s="22"/>
       <c r="R1610" s="2"/>
       <c r="S1610" s="2"/>
     </row>
     <row r="1611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1611" s="17"/>
       <c r="P1611" s="17"/>
       <c r="Q1611" s="22"/>
       <c r="R1611" s="2"/>
       <c r="S1611" s="2"/>
     </row>
     <row r="1612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1612" s="17"/>
       <c r="P1612" s="17"/>
       <c r="Q1612" s="22"/>
       <c r="R1612" s="2"/>
       <c r="S1612" s="2"/>
     </row>
     <row r="1613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1613" s="17"/>
       <c r="P1613" s="17"/>
       <c r="Q1613" s="22"/>
       <c r="R1613" s="2"/>
       <c r="S1613" s="2"/>
     </row>
     <row r="1614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1614" s="17"/>
       <c r="P1614" s="17"/>
       <c r="Q1614" s="22"/>
       <c r="R1614" s="2"/>
       <c r="S1614" s="2"/>
     </row>
     <row r="1615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1615" s="17"/>
       <c r="P1615" s="17"/>
       <c r="Q1615" s="22"/>
       <c r="R1615" s="2"/>
       <c r="S1615" s="2"/>
     </row>
     <row r="1616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1616" s="17"/>
       <c r="P1616" s="17"/>
       <c r="Q1616" s="22"/>
       <c r="R1616" s="2"/>
       <c r="S1616" s="2"/>
     </row>
     <row r="1617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1617" s="17"/>
       <c r="P1617" s="17"/>
       <c r="Q1617" s="22"/>
       <c r="R1617" s="2"/>
       <c r="S1617" s="2"/>
     </row>
     <row r="1618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1618" s="17"/>
       <c r="P1618" s="17"/>
       <c r="Q1618" s="22"/>
       <c r="R1618" s="2"/>
       <c r="S1618" s="2"/>
     </row>
     <row r="1619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1619" s="17"/>
       <c r="P1619" s="17"/>
       <c r="Q1619" s="22"/>
       <c r="R1619" s="2"/>
       <c r="S1619" s="2"/>
     </row>
     <row r="1620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1620" s="17"/>
       <c r="P1620" s="17"/>
       <c r="Q1620" s="22"/>
       <c r="R1620" s="2"/>
       <c r="S1620" s="2"/>
     </row>
     <row r="1621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1621" s="17"/>
       <c r="P1621" s="17"/>
       <c r="Q1621" s="22"/>
       <c r="R1621" s="2"/>
       <c r="S1621" s="2"/>
     </row>
     <row r="1622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1622" s="17"/>
       <c r="P1622" s="17"/>
       <c r="Q1622" s="22"/>
       <c r="R1622" s="2"/>
       <c r="S1622" s="2"/>
     </row>
     <row r="1623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1623" s="17"/>
       <c r="P1623" s="17"/>
       <c r="Q1623" s="22"/>
       <c r="R1623" s="2"/>
       <c r="S1623" s="2"/>
     </row>
     <row r="1624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1624" s="17"/>
       <c r="P1624" s="17"/>
       <c r="Q1624" s="22"/>
       <c r="R1624" s="2"/>
       <c r="S1624" s="2"/>
     </row>
     <row r="1625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1625" s="17"/>
       <c r="P1625" s="17"/>
       <c r="Q1625" s="22"/>
       <c r="R1625" s="2"/>
       <c r="S1625" s="2"/>
     </row>
     <row r="1626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1626" s="17"/>
       <c r="P1626" s="17"/>
       <c r="Q1626" s="22"/>
       <c r="R1626" s="2"/>
       <c r="S1626" s="2"/>
     </row>
     <row r="1627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1627" s="17"/>
       <c r="P1627" s="17"/>
       <c r="Q1627" s="22"/>
       <c r="R1627" s="2"/>
       <c r="S1627" s="2"/>
     </row>
     <row r="1628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1628" s="17"/>
       <c r="P1628" s="17"/>
       <c r="Q1628" s="22"/>
       <c r="R1628" s="2"/>
       <c r="S1628" s="2"/>
     </row>
     <row r="1629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1629" s="17"/>
       <c r="P1629" s="17"/>
       <c r="Q1629" s="22"/>
       <c r="R1629" s="2"/>
       <c r="S1629" s="2"/>
     </row>
     <row r="1630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1630" s="17"/>
       <c r="P1630" s="17"/>
       <c r="Q1630" s="22"/>
       <c r="R1630" s="2"/>
       <c r="S1630" s="2"/>
     </row>
     <row r="1631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1631" s="17"/>
       <c r="P1631" s="17"/>
       <c r="Q1631" s="22"/>
       <c r="R1631" s="2"/>
       <c r="S1631" s="2"/>
     </row>
     <row r="1632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1632" s="17"/>
       <c r="P1632" s="17"/>
       <c r="Q1632" s="22"/>
       <c r="R1632" s="2"/>
       <c r="S1632" s="2"/>
     </row>
     <row r="1633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1633" s="17"/>
       <c r="P1633" s="17"/>
       <c r="Q1633" s="22"/>
       <c r="R1633" s="2"/>
       <c r="S1633" s="2"/>
     </row>
     <row r="1634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1634" s="17"/>
       <c r="P1634" s="17"/>
       <c r="Q1634" s="22"/>
       <c r="R1634" s="2"/>
       <c r="S1634" s="2"/>
     </row>
     <row r="1635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1635" s="17"/>
       <c r="P1635" s="17"/>
       <c r="Q1635" s="22"/>
       <c r="R1635" s="2"/>
       <c r="S1635" s="2"/>
     </row>
     <row r="1636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1636" s="17"/>
       <c r="P1636" s="17"/>
       <c r="Q1636" s="22"/>
       <c r="R1636" s="2"/>
       <c r="S1636" s="2"/>
     </row>
     <row r="1637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1637" s="17"/>
       <c r="P1637" s="17"/>
       <c r="Q1637" s="22"/>
       <c r="R1637" s="2"/>
       <c r="S1637" s="2"/>
     </row>
     <row r="1638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1638" s="17"/>
       <c r="P1638" s="17"/>
       <c r="Q1638" s="22"/>
       <c r="R1638" s="2"/>
       <c r="S1638" s="2"/>
     </row>
     <row r="1639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1639" s="17"/>
       <c r="P1639" s="17"/>
       <c r="Q1639" s="22"/>
       <c r="R1639" s="2"/>
       <c r="S1639" s="2"/>
     </row>
     <row r="1640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1640" s="17"/>
       <c r="P1640" s="17"/>
       <c r="Q1640" s="22"/>
       <c r="R1640" s="2"/>
       <c r="S1640" s="2"/>
     </row>
     <row r="1641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1641" s="17"/>
       <c r="P1641" s="17"/>
       <c r="Q1641" s="22"/>
       <c r="R1641" s="2"/>
       <c r="S1641" s="2"/>
     </row>
     <row r="1642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1642" s="17"/>
       <c r="P1642" s="17"/>
       <c r="Q1642" s="22"/>
       <c r="R1642" s="2"/>
       <c r="S1642" s="2"/>
     </row>
     <row r="1643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1643" s="17"/>
       <c r="P1643" s="17"/>
       <c r="Q1643" s="22"/>
       <c r="R1643" s="2"/>
       <c r="S1643" s="2"/>
     </row>
     <row r="1644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1644" s="17"/>
       <c r="P1644" s="17"/>
       <c r="Q1644" s="22"/>
       <c r="R1644" s="2"/>
       <c r="S1644" s="2"/>
     </row>
     <row r="1645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1645" s="17"/>
       <c r="P1645" s="17"/>
       <c r="Q1645" s="22"/>
       <c r="R1645" s="2"/>
       <c r="S1645" s="2"/>
     </row>
     <row r="1646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1646" s="17"/>
       <c r="P1646" s="17"/>
       <c r="Q1646" s="22"/>
       <c r="R1646" s="2"/>
       <c r="S1646" s="2"/>
     </row>
     <row r="1647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1647" s="17"/>
       <c r="P1647" s="17"/>
       <c r="Q1647" s="22"/>
       <c r="R1647" s="2"/>
       <c r="S1647" s="2"/>
     </row>
     <row r="1648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1648" s="17"/>
       <c r="P1648" s="17"/>
       <c r="Q1648" s="22"/>
       <c r="R1648" s="2"/>
       <c r="S1648" s="2"/>
     </row>
     <row r="1649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1649" s="17"/>
       <c r="P1649" s="17"/>
       <c r="Q1649" s="22"/>
       <c r="R1649" s="2"/>
       <c r="S1649" s="2"/>
     </row>
     <row r="1650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1650" s="17"/>
       <c r="P1650" s="17"/>
       <c r="Q1650" s="22"/>
       <c r="R1650" s="2"/>
       <c r="S1650" s="2"/>
     </row>
     <row r="1651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1651" s="17"/>
       <c r="P1651" s="17"/>
       <c r="Q1651" s="22"/>
       <c r="R1651" s="2"/>
       <c r="S1651" s="2"/>
     </row>
     <row r="1652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1652" s="17"/>
       <c r="P1652" s="17"/>
       <c r="Q1652" s="22"/>
       <c r="R1652" s="2"/>
       <c r="S1652" s="2"/>
     </row>
     <row r="1653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1653" s="17"/>
       <c r="P1653" s="17"/>
       <c r="Q1653" s="22"/>
       <c r="R1653" s="2"/>
       <c r="S1653" s="2"/>
     </row>
     <row r="1654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1654" s="17"/>
       <c r="P1654" s="17"/>
       <c r="Q1654" s="22"/>
       <c r="R1654" s="2"/>
       <c r="S1654" s="2"/>
     </row>
     <row r="1655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1655" s="17"/>
       <c r="P1655" s="17"/>
       <c r="Q1655" s="22"/>
       <c r="R1655" s="2"/>
       <c r="S1655" s="2"/>
     </row>
     <row r="1656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1656" s="17"/>
       <c r="P1656" s="17"/>
       <c r="Q1656" s="22"/>
       <c r="R1656" s="2"/>
       <c r="S1656" s="2"/>
     </row>
     <row r="1657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1657" s="17"/>
       <c r="P1657" s="17"/>
       <c r="Q1657" s="22"/>
       <c r="R1657" s="2"/>
       <c r="S1657" s="2"/>
     </row>
     <row r="1658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1658" s="17"/>
       <c r="P1658" s="17"/>
       <c r="Q1658" s="22"/>
       <c r="R1658" s="2"/>
       <c r="S1658" s="2"/>
     </row>
     <row r="1659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1659" s="17"/>
       <c r="P1659" s="17"/>
       <c r="Q1659" s="22"/>
       <c r="R1659" s="2"/>
       <c r="S1659" s="2"/>
     </row>
     <row r="1660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1660" s="17"/>
       <c r="P1660" s="17"/>
       <c r="Q1660" s="22"/>
       <c r="R1660" s="2"/>
       <c r="S1660" s="2"/>
     </row>
     <row r="1661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1661" s="17"/>
       <c r="P1661" s="17"/>
       <c r="Q1661" s="22"/>
       <c r="R1661" s="2"/>
       <c r="S1661" s="2"/>
     </row>
     <row r="1662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1662" s="17"/>
       <c r="P1662" s="17"/>
       <c r="Q1662" s="22"/>
       <c r="R1662" s="2"/>
       <c r="S1662" s="2"/>
     </row>
     <row r="1663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1663" s="17"/>
       <c r="P1663" s="17"/>
       <c r="Q1663" s="22"/>
       <c r="R1663" s="2"/>
       <c r="S1663" s="2"/>
     </row>
     <row r="1664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1664" s="17"/>
       <c r="P1664" s="17"/>
       <c r="Q1664" s="22"/>
       <c r="R1664" s="2"/>
       <c r="S1664" s="2"/>
     </row>
     <row r="1665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1665" s="17"/>
       <c r="P1665" s="17"/>
       <c r="Q1665" s="22"/>
       <c r="R1665" s="2"/>
       <c r="S1665" s="2"/>
     </row>
     <row r="1666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1666" s="17"/>
       <c r="P1666" s="17"/>
       <c r="Q1666" s="22"/>
       <c r="R1666" s="2"/>
       <c r="S1666" s="2"/>
     </row>
     <row r="1667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1667" s="17"/>
       <c r="P1667" s="17"/>
       <c r="Q1667" s="22"/>
       <c r="R1667" s="2"/>
       <c r="S1667" s="2"/>
     </row>
     <row r="1668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1668" s="17"/>
       <c r="P1668" s="17"/>
       <c r="Q1668" s="22"/>
       <c r="R1668" s="2"/>
       <c r="S1668" s="2"/>
     </row>
     <row r="1669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1669" s="17"/>
       <c r="P1669" s="17"/>
       <c r="Q1669" s="22"/>
       <c r="R1669" s="2"/>
       <c r="S1669" s="2"/>
     </row>
     <row r="1670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1670" s="17"/>
       <c r="P1670" s="17"/>
       <c r="Q1670" s="22"/>
       <c r="R1670" s="2"/>
       <c r="S1670" s="2"/>
     </row>
     <row r="1671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1671" s="17"/>
       <c r="P1671" s="17"/>
       <c r="Q1671" s="22"/>
       <c r="R1671" s="2"/>
       <c r="S1671" s="2"/>
     </row>
     <row r="1672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1672" s="17"/>
       <c r="P1672" s="17"/>
       <c r="Q1672" s="22"/>
       <c r="R1672" s="2"/>
       <c r="S1672" s="2"/>
     </row>
     <row r="1673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1673" s="17"/>
       <c r="P1673" s="17"/>
       <c r="Q1673" s="22"/>
       <c r="R1673" s="2"/>
       <c r="S1673" s="2"/>
     </row>
     <row r="1674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1674" s="17"/>
       <c r="P1674" s="17"/>
       <c r="Q1674" s="22"/>
       <c r="R1674" s="2"/>
       <c r="S1674" s="2"/>
     </row>
     <row r="1675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1675" s="17"/>
       <c r="P1675" s="17"/>
       <c r="Q1675" s="22"/>
       <c r="R1675" s="2"/>
       <c r="S1675" s="2"/>
     </row>
     <row r="1676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1676" s="17"/>
       <c r="P1676" s="17"/>
       <c r="Q1676" s="22"/>
       <c r="R1676" s="2"/>
       <c r="S1676" s="2"/>
     </row>
     <row r="1677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1677" s="17"/>
       <c r="P1677" s="17"/>
       <c r="Q1677" s="22"/>
       <c r="R1677" s="2"/>
       <c r="S1677" s="2"/>
     </row>
     <row r="1678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1678" s="17"/>
       <c r="P1678" s="17"/>
       <c r="Q1678" s="22"/>
       <c r="R1678" s="2"/>
       <c r="S1678" s="2"/>
     </row>
     <row r="1679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1679" s="17"/>
       <c r="P1679" s="17"/>
       <c r="Q1679" s="22"/>
       <c r="R1679" s="2"/>
       <c r="S1679" s="2"/>
     </row>
     <row r="1680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1680" s="17"/>
       <c r="P1680" s="17"/>
       <c r="Q1680" s="22"/>
       <c r="R1680" s="2"/>
       <c r="S1680" s="2"/>
     </row>
     <row r="1681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1681" s="17"/>
       <c r="P1681" s="17"/>
       <c r="Q1681" s="22"/>
       <c r="R1681" s="2"/>
       <c r="S1681" s="2"/>
     </row>
     <row r="1682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1682" s="17"/>
       <c r="P1682" s="17"/>
       <c r="Q1682" s="22"/>
       <c r="R1682" s="2"/>
       <c r="S1682" s="2"/>
     </row>
     <row r="1683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1683" s="17"/>
       <c r="P1683" s="17"/>
       <c r="Q1683" s="22"/>
       <c r="R1683" s="2"/>
       <c r="S1683" s="2"/>
     </row>
     <row r="1684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1684" s="17"/>
       <c r="P1684" s="17"/>
       <c r="Q1684" s="22"/>
       <c r="R1684" s="2"/>
       <c r="S1684" s="2"/>
     </row>
     <row r="1685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1685" s="17"/>
       <c r="P1685" s="17"/>
       <c r="Q1685" s="22"/>
       <c r="R1685" s="2"/>
       <c r="S1685" s="2"/>
     </row>
     <row r="1686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1686" s="17"/>
       <c r="P1686" s="17"/>
       <c r="Q1686" s="22"/>
       <c r="R1686" s="2"/>
       <c r="S1686" s="2"/>
     </row>
     <row r="1687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1687" s="17"/>
       <c r="P1687" s="17"/>
       <c r="Q1687" s="22"/>
       <c r="R1687" s="2"/>
       <c r="S1687" s="2"/>
     </row>
     <row r="1688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1688" s="17"/>
       <c r="P1688" s="17"/>
       <c r="Q1688" s="22"/>
       <c r="R1688" s="2"/>
       <c r="S1688" s="2"/>
     </row>
     <row r="1689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1689" s="17"/>
       <c r="P1689" s="17"/>
       <c r="Q1689" s="22"/>
       <c r="R1689" s="2"/>
       <c r="S1689" s="2"/>
     </row>
     <row r="1690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1690" s="17"/>
       <c r="P1690" s="17"/>
       <c r="Q1690" s="22"/>
       <c r="R1690" s="2"/>
       <c r="S1690" s="2"/>
     </row>
     <row r="1691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1691" s="17"/>
       <c r="P1691" s="17"/>
       <c r="Q1691" s="22"/>
       <c r="R1691" s="2"/>
       <c r="S1691" s="2"/>
     </row>
     <row r="1692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1692" s="17"/>
       <c r="P1692" s="17"/>
       <c r="Q1692" s="22"/>
       <c r="R1692" s="2"/>
       <c r="S1692" s="2"/>
     </row>
     <row r="1693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1693" s="17"/>
       <c r="P1693" s="17"/>
       <c r="Q1693" s="22"/>
       <c r="R1693" s="2"/>
       <c r="S1693" s="2"/>
     </row>
     <row r="1694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1694" s="17"/>
       <c r="P1694" s="17"/>
       <c r="Q1694" s="22"/>
       <c r="R1694" s="2"/>
       <c r="S1694" s="2"/>
     </row>
     <row r="1695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1695" s="17"/>
       <c r="P1695" s="17"/>
       <c r="Q1695" s="22"/>
       <c r="R1695" s="2"/>
       <c r="S1695" s="2"/>
     </row>
     <row r="1696" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1696" s="17"/>
       <c r="Q1696" s="22"/>
       <c r="R1696" s="2"/>
       <c r="S1696" s="2"/>
     </row>
     <row r="1697" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1697" s="17"/>
       <c r="Q1697" s="22"/>
       <c r="R1697" s="2"/>
       <c r="S1697" s="2"/>
     </row>
     <row r="1698" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1698" s="17"/>
       <c r="Q1698" s="22"/>
       <c r="R1698" s="2"/>
       <c r="S1698" s="2"/>
     </row>
     <row r="1699" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1699" s="17"/>
       <c r="Q1699" s="22"/>
       <c r="R1699" s="2"/>
       <c r="S1699" s="2"/>
     </row>
     <row r="1700" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1700" s="17"/>
       <c r="Q1700" s="22"/>
       <c r="R1700" s="2"/>
       <c r="S1700" s="2"/>
     </row>
     <row r="1701" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1701" s="17"/>
       <c r="Q1701" s="22"/>
       <c r="R1701" s="2"/>
       <c r="S1701" s="2"/>
+    </row>
+    <row r="1702" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1702" s="17"/>
+    </row>
+    <row r="1703" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1703" s="17"/>
+    </row>
+    <row r="1704" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1704" s="17"/>
+    </row>
+    <row r="1705" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1705" s="17"/>
+    </row>
+    <row r="1706" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1706" s="17"/>
+    </row>
+    <row r="1707" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1707" s="17"/>
+    </row>
+    <row r="1708" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1708" s="17"/>
+    </row>
+    <row r="1709" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1709" s="17"/>
+    </row>
+    <row r="1710" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1710" s="17"/>
+    </row>
+    <row r="1711" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1711" s="17"/>
+    </row>
+    <row r="1712" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1712" s="17"/>
+    </row>
+    <row r="1713" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1713" s="17"/>
+    </row>
+    <row r="1714" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1714" s="17"/>
+    </row>
+    <row r="1715" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1715" s="17"/>
+    </row>
+    <row r="1716" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1716" s="17"/>
+    </row>
+    <row r="1717" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1717" s="17"/>
+    </row>
+    <row r="1718" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1718" s="17"/>
+    </row>
+    <row r="1719" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1719" s="17"/>
+    </row>
+    <row r="1720" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1720" s="17"/>
+    </row>
+    <row r="1721" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1721" s="17"/>
+    </row>
+    <row r="1722" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1722" s="17"/>
+    </row>
+    <row r="1723" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1723" s="17"/>
+    </row>
+    <row r="1724" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1724" s="17"/>
+    </row>
+    <row r="1725" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1725" s="17"/>
+    </row>
+    <row r="1726" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1726" s="17"/>
+    </row>
+    <row r="1727" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1727" s="17"/>
+    </row>
+    <row r="1728" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1728" s="17"/>
+    </row>
+    <row r="1729" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1729" s="17"/>
+    </row>
+    <row r="1730" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1730" s="17"/>
+    </row>
+    <row r="1731" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1731" s="17"/>
+    </row>
+    <row r="1732" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1732" s="17"/>
+    </row>
+    <row r="1733" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1733" s="17"/>
+    </row>
+    <row r="1734" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1734" s="17"/>
+    </row>
+    <row r="1735" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1735" s="17"/>
+    </row>
+    <row r="1736" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1736" s="17"/>
+    </row>
+    <row r="1737" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1737" s="17"/>
+    </row>
+    <row r="1738" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1738" s="17"/>
+    </row>
+    <row r="1739" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1739" s="17"/>
+    </row>
+    <row r="1740" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1740" s="17"/>
+    </row>
+    <row r="1741" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1741" s="17"/>
+    </row>
+    <row r="1742" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1742" s="17"/>
+    </row>
+    <row r="1743" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1743" s="17"/>
+    </row>
+    <row r="1744" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1744" s="17"/>
+    </row>
+    <row r="1745" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1745" s="17"/>
+    </row>
+    <row r="1746" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1746" s="17"/>
+    </row>
+    <row r="1747" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1747" s="17"/>
+    </row>
+    <row r="1748" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1748" s="17"/>
+    </row>
+    <row r="1749" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1749" s="17"/>
+    </row>
+    <row r="1750" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1750" s="17"/>
+    </row>
+    <row r="1751" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1751" s="17"/>
+    </row>
+    <row r="1752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1752" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33913,10 +34164,6 @@
       <formula1>Справочники!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F1606" type="list">
-      <formula1>Справочники!$D$2:$D$32</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1608" type="list">
       <formula1>Справочники!$E$2:$E$96</formula1>
       <formula2>0</formula2>
@@ -33931,6 +34178,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P7:P1695" type="list">
       <formula1>Справочники!$H$2:$H$243</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F1752" type="list">
+      <formula1>Справочники!$D$2:$D$33</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -33952,10 +34203,10 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -34495,513 +34746,516 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="E33" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H83" s="27" t="s">
         <v>74</v>
@@ -35009,90 +35263,90 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35100,7 +35354,7 @@
         <v>79</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35113,785 +35367,785 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H98" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H107" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="26" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H111" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="27" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="27" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="27" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="27" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="27" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="27" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="27" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="27" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="27" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="27" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H243" s="27" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35931,7 +36185,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
@@ -35939,10 +36193,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35950,7 +36204,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35958,7 +36212,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35966,7 +36220,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35974,7 +36228,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35982,7 +36236,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35990,7 +36244,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35998,7 +36252,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36006,7 +36260,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36014,7 +36268,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36022,7 +36276,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36030,7 +36284,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36038,7 +36292,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36046,7 +36300,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36054,7 +36308,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36062,7 +36316,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36070,7 +36324,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36078,7 +36332,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36086,7 +36340,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36094,7 +36348,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36102,7 +36356,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36110,7 +36364,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36118,7 +36372,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36126,7 +36380,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36134,7 +36388,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36142,7 +36396,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36150,7 +36404,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36158,7 +36412,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36166,7 +36420,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36174,7 +36428,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36182,7 +36436,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36190,7 +36444,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36198,7 +36452,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36206,7 +36460,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36214,7 +36468,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36222,7 +36476,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36230,7 +36484,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36238,7 +36492,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36246,7 +36500,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36254,7 +36508,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36262,7 +36516,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36270,7 +36524,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36278,7 +36532,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36286,7 +36540,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36294,7 +36548,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36302,7 +36556,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36310,7 +36564,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36318,7 +36572,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36326,7 +36580,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36334,7 +36588,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36342,7 +36596,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36350,7 +36604,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36358,7 +36612,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36366,7 +36620,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36374,7 +36628,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36382,7 +36636,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36390,7 +36644,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36398,7 +36652,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36406,7 +36660,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36414,7 +36668,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36422,7 +36676,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36430,7 +36684,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36438,7 +36692,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36446,7 +36700,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36454,7 +36708,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36462,7 +36716,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36470,7 +36724,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36478,7 +36732,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36486,7 +36740,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36494,7 +36748,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36502,7 +36756,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36510,7 +36764,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36518,7 +36772,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36526,7 +36780,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36534,7 +36788,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36542,7 +36796,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36550,7 +36804,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36558,7 +36812,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36566,7 +36820,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36574,7 +36828,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36582,7 +36836,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36590,7 +36844,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36598,7 +36852,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36606,7 +36860,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36614,7 +36868,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36622,7 +36876,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36630,7 +36884,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36638,7 +36892,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36646,7 +36900,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36654,7 +36908,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36662,7 +36916,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36670,7 +36924,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36678,7 +36932,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36686,7 +36940,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36694,7 +36948,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36702,7 +36956,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36710,7 +36964,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36718,7 +36972,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36726,7 +36980,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36734,7 +36988,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36742,7 +36996,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36750,7 +37004,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36758,7 +37012,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36766,7 +37020,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36774,7 +37028,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36782,7 +37036,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36790,7 +37044,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36798,7 +37052,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36806,7 +37060,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36814,7 +37068,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36822,7 +37076,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36830,7 +37084,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36838,7 +37092,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36846,7 +37100,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36854,7 +37108,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36862,7 +37116,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36870,7 +37124,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36878,7 +37132,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36886,7 +37140,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36894,7 +37148,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36902,7 +37156,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36910,7 +37164,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36918,7 +37172,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36926,7 +37180,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36934,7 +37188,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36942,7 +37196,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36950,7 +37204,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36958,7 +37212,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36966,7 +37220,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36974,7 +37228,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36982,7 +37236,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36990,7 +37244,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36998,7 +37252,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37006,7 +37260,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37014,7 +37268,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37022,7 +37276,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37030,7 +37284,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37038,7 +37292,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37046,7 +37300,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37054,7 +37308,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37062,7 +37316,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37070,7 +37324,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37078,7 +37332,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37086,7 +37340,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37094,7 +37348,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -3190,11 +3190,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1752"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1744" activeCellId="0" sqref="F1744"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -34143,7 +34143,7 @@
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="Q6:S6"/>
   </mergeCells>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B1606 M7:M1606" type="textLength">
       <formula1>129</formula1>
       <formula2>0</formula2>
@@ -34164,16 +34164,8 @@
       <formula1>Справочники!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1608" type="list">
-      <formula1>Справочники!$E$2:$E$96</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q7:Q1701" type="list">
       <formula1>Справочники!$I$2:$I$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1607" type="list">
-      <formula1>Справочники!$E$2:$E$112</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P7:P1695" type="list">
@@ -34182,6 +34174,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F1752" type="list">
       <formula1>Справочники!$D$2:$D$33</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G5 G7:G2606" type="textLength">
+      <formula1>100</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -34206,7 +34202,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -36185,7 +36181,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="679">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">МИКРОФИБРА</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ДОРОЖКА</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">ПОПЛИН</t>
   </si>
   <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННОЕ КОРОЛЕВСТВО</t>
   </si>
   <si>
     <t xml:space="preserve">НИКЕЛЬ</t>
@@ -1199,81 +1199,78 @@
     <t xml:space="preserve">СЕРЫЙ/ЗЕЛЕНЫЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">КОСТА-РИКА</t>
   </si>
   <si>
     <t xml:space="preserve">СИНЕ-ЗЕЛЕНЫЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОСТА-РИКА</t>
+    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛО-ГОЛУБОЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
+    <t xml:space="preserve">КУБА</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛО-СИНИЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">КУБА</t>
+    <t xml:space="preserve">КУВЕЙТ</t>
   </si>
   <si>
     <t xml:space="preserve">СВЕТЛО-ГОЛУБОЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">КУВЕЙТ</t>
+    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЗЕЛЕНЫЙ МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЛАТВИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЖЕЛТЫЙ МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛАТВИЯ</t>
+    <t xml:space="preserve">ЛЕСОТО</t>
   </si>
   <si>
     <t xml:space="preserve">СИНИЙ МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЕСОТО</t>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КРАСНЫЙ МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
+    <t xml:space="preserve">ЛИВАН</t>
   </si>
   <si>
     <t xml:space="preserve">РОЗОВЫЙ МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИВАН</t>
+    <t xml:space="preserve">ЛИВИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ФИОЛЕТОВЫЙ МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИВИЯ</t>
+    <t xml:space="preserve">ЛИТВА</t>
   </si>
   <si>
     <t xml:space="preserve">ЖЕЛТО-ЗЕЛЕНЫЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИТВА</t>
+    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
   </si>
   <si>
     <t xml:space="preserve">МЕЛАНЖ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
   </si>
   <si>
@@ -1376,7 +1373,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОАЭ</t>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -1433,7 +1430,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -1505,7 +1502,7 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">США</t>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -3194,7 +3191,7 @@
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -34198,11 +34195,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E232" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H243" activeCellId="0" sqref="H243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -36140,9 +36137,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H243" s="27" t="s">
-        <v>534</v>
-      </c>
+      <c r="H243" s="27"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H244" s="27"/>
@@ -36181,7 +36176,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.76"/>
@@ -36189,10 +36184,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>535</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36200,7 +36195,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36208,7 +36203,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36216,7 +36211,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36224,7 +36219,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36232,7 +36227,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36240,7 +36235,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36248,7 +36243,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36256,7 +36251,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36264,7 +36259,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36272,7 +36267,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36280,7 +36275,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36288,7 +36283,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36296,7 +36291,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36304,7 +36299,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36312,7 +36307,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36320,7 +36315,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36328,7 +36323,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36336,7 +36331,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36344,7 +36339,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36352,7 +36347,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36360,7 +36355,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36368,7 +36363,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36376,7 +36371,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36384,7 +36379,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36392,7 +36387,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36400,7 +36395,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36408,7 +36403,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36416,7 +36411,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36424,7 +36419,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36432,7 +36427,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36440,7 +36435,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36448,7 +36443,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36456,7 +36451,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36464,7 +36459,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36472,7 +36467,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36480,7 +36475,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36488,7 +36483,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36496,7 +36491,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36504,7 +36499,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36512,7 +36507,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36520,7 +36515,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36528,7 +36523,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36536,7 +36531,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36544,7 +36539,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36552,7 +36547,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36560,7 +36555,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36568,7 +36563,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36576,7 +36571,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36584,7 +36579,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36592,7 +36587,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36600,7 +36595,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36608,7 +36603,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36616,7 +36611,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36624,7 +36619,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36632,7 +36627,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36640,7 +36635,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36648,7 +36643,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36656,7 +36651,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36664,7 +36659,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36672,7 +36667,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36680,7 +36675,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36688,7 +36683,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36696,7 +36691,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36704,7 +36699,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36712,7 +36707,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36720,7 +36715,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36728,7 +36723,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36736,7 +36731,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36744,7 +36739,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36752,7 +36747,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36760,7 +36755,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36768,7 +36763,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36776,7 +36771,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36784,7 +36779,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36792,7 +36787,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36800,7 +36795,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36808,7 +36803,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36816,7 +36811,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36824,7 +36819,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36832,7 +36827,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36840,7 +36835,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36848,7 +36843,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36856,7 +36851,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36864,7 +36859,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36872,7 +36867,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36880,7 +36875,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36888,7 +36883,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36896,7 +36891,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36904,7 +36899,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36912,7 +36907,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36920,7 +36915,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36928,7 +36923,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36936,7 +36931,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36944,7 +36939,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36952,7 +36947,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36960,7 +36955,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36968,7 +36963,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36976,7 +36971,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36984,7 +36979,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36992,7 +36987,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37000,7 +36995,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37008,7 +37003,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37016,7 +37011,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37024,7 +37019,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37032,7 +37027,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37040,7 +37035,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37048,7 +37043,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37056,7 +37051,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37064,7 +37059,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37072,7 +37067,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37080,7 +37075,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37088,7 +37083,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37096,7 +37091,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37104,7 +37099,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37112,7 +37107,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37120,7 +37115,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37128,7 +37123,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37136,7 +37131,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37144,7 +37139,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37152,7 +37147,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37160,7 +37155,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37168,7 +37163,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37176,7 +37171,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37184,7 +37179,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37192,7 +37187,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37200,7 +37195,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37208,7 +37203,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37216,7 +37211,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37224,7 +37219,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37232,7 +37227,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37240,7 +37235,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37248,7 +37243,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37256,7 +37251,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37264,7 +37259,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37272,7 +37267,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37280,7 +37275,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37288,7 +37283,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37296,7 +37291,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37304,7 +37299,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37312,7 +37307,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37320,7 +37315,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37328,7 +37323,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37336,7 +37331,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37344,7 +37339,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="663">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">Значение атрибута</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОДОДЕЯЛЬНИК С ВЫРЕЗОМ</t>
+    <t xml:space="preserve">ПРОСТЫНЯ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЖЕВЫЙ МЕЛАНЖ</t>
@@ -297,9 +297,6 @@
     <t xml:space="preserve">АВСТРАЛИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
-  </si>
-  <si>
     <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
   </si>
   <si>
@@ -315,7 +312,7 @@
     <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОДЗОР</t>
+    <t xml:space="preserve">НАМАТРАСНИК</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЖЕВЫЙ/СИНИЙ</t>
@@ -333,7 +330,7 @@
     <t xml:space="preserve">Модель</t>
   </si>
   <si>
-    <t xml:space="preserve">ПРОСТЫНЯ</t>
+    <t xml:space="preserve">КОМПЛЕКТ ПОСТЕЛЬНОГО БЕЛЬЯ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛО-ЗЕЛЕНЫЙ</t>
@@ -345,6 +342,9 @@
     <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
   </si>
   <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ГОСТЕВОЕ</t>
+  </si>
+  <si>
     <t xml:space="preserve">БЕЛО-КОРИЧНЕВЫЙ</t>
   </si>
   <si>
@@ -357,7 +357,7 @@
     <t xml:space="preserve">Модель / Артикул</t>
   </si>
   <si>
-    <t xml:space="preserve">НАМАТРАСНИК</t>
+    <t xml:space="preserve">КОМПЛЕКТ ПОЛОТЕНЕЦ</t>
   </si>
   <si>
     <t xml:space="preserve">БИОМАТИН</t>
@@ -366,7 +366,7 @@
     <t xml:space="preserve">АЛЖИР</t>
   </si>
   <si>
-    <t xml:space="preserve">НАВОЛОЧКА КВАДРАТНАЯ</t>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЫЙ</t>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">НАВОЛОЧКА ПРЯМОУГОЛЬНАЯ</t>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЫЙ/БЕЖЕВЫЙ</t>
@@ -390,7 +390,7 @@
     <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
   </si>
   <si>
-    <t xml:space="preserve">НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ПЛЯЖНОЕ</t>
   </si>
   <si>
     <t xml:space="preserve">ВУАЛЬ</t>
@@ -399,7 +399,7 @@
     <t xml:space="preserve">АНГИЛЬЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОМПЛЕКТ ПОСТЕЛЬНОГО БЕЛЬЯ</t>
+    <t xml:space="preserve">КОВРИК</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЫЙ/СИНИЙ</t>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">АНГОЛА</t>
   </si>
   <si>
-    <t xml:space="preserve">КОМПЛЕКТ ПОЛОТЕНЕЦ</t>
+    <t xml:space="preserve">ИЗДЕЛИЕ ДЛЯ БАНИ И САУНЫ</t>
   </si>
   <si>
     <t xml:space="preserve">БИРЮЗОВЫЙ</t>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">АНДОРРА</t>
   </si>
   <si>
-    <t xml:space="preserve">ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+    <t xml:space="preserve">ДОРОЖКА</t>
   </si>
   <si>
     <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
@@ -435,7 +435,7 @@
     <t xml:space="preserve">АНТАРКТИДА</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
+    <t xml:space="preserve">САЛФЕТКА ПОД ПРИБОРЫ</t>
   </si>
   <si>
     <t xml:space="preserve">БОРДОВЫЙ</t>
@@ -453,7 +453,7 @@
     <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
+    <t xml:space="preserve">САЛФЕТКА</t>
   </si>
   <si>
     <t xml:space="preserve">БРОНЗОВЫЙ</t>
@@ -468,7 +468,7 @@
     <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+    <t xml:space="preserve">СКАТЕРТЬ</t>
   </si>
   <si>
     <t xml:space="preserve">ВАНИЛЬ</t>
@@ -483,9 +483,6 @@
     <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ВИШНЯ</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t xml:space="preserve">Действие технических регламентов не распространяется</t>
   </si>
   <si>
-    <t xml:space="preserve">ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ГОЛУБОЙ</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
     <t xml:space="preserve">АФГАНИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
   </si>
   <si>
@@ -522,9 +513,6 @@
     <t xml:space="preserve">БАГАМЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОВРИК</t>
-  </si>
-  <si>
     <t xml:space="preserve">ГРАФИТОВЫЙ</t>
   </si>
   <si>
@@ -534,9 +522,6 @@
     <t xml:space="preserve">БАНГЛАДЕШ</t>
   </si>
   <si>
-    <t xml:space="preserve">ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЖЁЛТЫЙ</t>
   </si>
   <si>
@@ -546,9 +531,6 @@
     <t xml:space="preserve">БАРБАДОС</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
   </si>
   <si>
@@ -558,9 +540,6 @@
     <t xml:space="preserve">БАХРЕЙН</t>
   </si>
   <si>
-    <t xml:space="preserve">АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
   </si>
   <si>
@@ -570,9 +549,6 @@
     <t xml:space="preserve">БЕЛИЗ</t>
   </si>
   <si>
-    <t xml:space="preserve">ДОРОЖКА</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЗОЛОТОЙ</t>
   </si>
   <si>
@@ -582,9 +558,6 @@
     <t xml:space="preserve">БЕЛАРУСЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
   </si>
   <si>
@@ -594,9 +567,6 @@
     <t xml:space="preserve">БЕЛЬГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
-  </si>
-  <si>
     <t xml:space="preserve">КАПУЧИНО</t>
   </si>
   <si>
@@ -606,9 +576,6 @@
     <t xml:space="preserve">БЕНИН</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОКРЫТИЕ ДЛЯ СТУЛА</t>
-  </si>
-  <si>
     <t xml:space="preserve">КИРПИЧНЫЙ</t>
   </si>
   <si>
@@ -618,9 +585,6 @@
     <t xml:space="preserve">БЕРМУДЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
-  </si>
-  <si>
     <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
   </si>
   <si>
@@ -630,9 +594,6 @@
     <t xml:space="preserve">БОЛГАРИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
   </si>
   <si>
@@ -642,9 +603,6 @@
     <t xml:space="preserve">БОЛИВИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">КОФЕЙНЫЙ</t>
   </si>
   <si>
@@ -652,9 +610,6 @@
   </si>
   <si>
     <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
   </si>
   <si>
     <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
@@ -2692,9 +2647,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2967,7 +2923,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3135,13 +3091,13 @@
   <dimension ref="A1:AMJ1752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="47.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.53"/>
@@ -3682,7 +3638,7 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="15" t="str">
         <f aca="false">CONCATENATE(F9, " арт. ", E9, " цвет ", G9, ". ", J9)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
@@ -3703,7 +3659,7 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="15" t="str">
         <f aca="false">CONCATENATE(F10, " арт. ", E10, " цвет ", G10, ". ", J10)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
@@ -3724,7 +3680,7 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="15" t="str">
         <f aca="false">CONCATENATE(F11, " арт. ", E11, " цвет ", G11, ". ", J11)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
@@ -3745,7 +3701,7 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="15" t="str">
         <f aca="false">CONCATENATE(F12, " арт. ", E12, " цвет ", G12, ". ", J12)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
@@ -3766,7 +3722,7 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="15" t="str">
         <f aca="false">CONCATENATE(F13, " арт. ", E13, " цвет ", G13, ". ", J13)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
@@ -3787,7 +3743,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="15" t="str">
         <f aca="false">CONCATENATE(F14, " арт. ", E14, " цвет ", G14, ". ", J14)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="3" t="s">
@@ -3808,7 +3764,7 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="15" t="str">
         <f aca="false">CONCATENATE(F15, " арт. ", E15, " цвет ", G15, ". ", J15)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="3" t="s">
@@ -3829,7 +3785,7 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="15" t="str">
         <f aca="false">CONCATENATE(F16, " арт. ", E16, " цвет ", G16, ". ", J16)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="3" t="s">
@@ -3850,7 +3806,7 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="15" t="str">
         <f aca="false">CONCATENATE(F17, " арт. ", E17, " цвет ", G17, ". ", J17)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="3" t="s">
@@ -3871,7 +3827,7 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="15" t="str">
         <f aca="false">CONCATENATE(F18, " арт. ", E18, " цвет ", G18, ". ", J18)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="3" t="s">
@@ -3892,7 +3848,7 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="15" t="str">
         <f aca="false">CONCATENATE(F19, " арт. ", E19, " цвет ", G19, ". ", J19)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="3" t="s">
@@ -3913,7 +3869,7 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="15" t="str">
         <f aca="false">CONCATENATE(F20, " арт. ", E20, " цвет ", G20, ". ", J20)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
@@ -3934,7 +3890,7 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="15" t="str">
         <f aca="false">CONCATENATE(F21, " арт. ", E21, " цвет ", G21, ". ", J21)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
@@ -3955,7 +3911,7 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="15" t="str">
         <f aca="false">CONCATENATE(F22, " арт. ", E22, " цвет ", G22, ". ", J22)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="3" t="s">
@@ -3976,7 +3932,7 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="15" t="str">
         <f aca="false">CONCATENATE(F23, " арт. ", E23, " цвет ", G23, ". ", J23)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="3" t="s">
@@ -3997,7 +3953,7 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="15" t="str">
         <f aca="false">CONCATENATE(F24, " арт. ", E24, " цвет ", G24, ". ", J24)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
@@ -4018,7 +3974,7 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="15" t="str">
         <f aca="false">CONCATENATE(F25, " арт. ", E25, " цвет ", G25, ". ", J25)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="3" t="s">
@@ -4039,7 +3995,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="15" t="str">
         <f aca="false">CONCATENATE(F26, " арт. ", E26, " цвет ", G26, ". ", J26)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="3" t="s">
@@ -4060,7 +4016,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15" t="str">
         <f aca="false">CONCATENATE(F27, " арт. ", E27, " цвет ", G27, ". ", J27)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
@@ -4081,7 +4037,7 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="str">
         <f aca="false">CONCATENATE(F28, " арт. ", E28, " цвет ", G28, ". ", J28)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="3" t="s">
@@ -4102,7 +4058,7 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="15" t="str">
         <f aca="false">CONCATENATE(F29, " арт. ", E29, " цвет ", G29, ". ", J29)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="3" t="s">
@@ -4123,7 +4079,7 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="15" t="str">
         <f aca="false">CONCATENATE(F30, " арт. ", E30, " цвет ", G30, ". ", J30)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="3" t="s">
@@ -4144,7 +4100,7 @@
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="15" t="str">
         <f aca="false">CONCATENATE(F31, " арт. ", E31, " цвет ", G31, ". ", J31)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="3" t="s">
@@ -4165,7 +4121,7 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="15" t="str">
         <f aca="false">CONCATENATE(F32, " арт. ", E32, " цвет ", G32, ". ", J32)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="3" t="s">
@@ -4186,7 +4142,7 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15" t="str">
         <f aca="false">CONCATENATE(F33, " арт. ", E33, " цвет ", G33, ". ", J33)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="3" t="s">
@@ -4207,7 +4163,7 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="15" t="str">
         <f aca="false">CONCATENATE(F34, " арт. ", E34, " цвет ", G34, ". ", J34)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="3" t="s">
@@ -4228,7 +4184,7 @@
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="15" t="str">
         <f aca="false">CONCATENATE(F35, " арт. ", E35, " цвет ", G35, ". ", J35)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="3" t="s">
@@ -4249,7 +4205,7 @@
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="15" t="str">
         <f aca="false">CONCATENATE(F36, " арт. ", E36, " цвет ", G36, ". ", J36)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="3" t="s">
@@ -4270,7 +4226,7 @@
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="15" t="str">
         <f aca="false">CONCATENATE(F37, " арт. ", E37, " цвет ", G37, ". ", J37)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="3" t="s">
@@ -4291,7 +4247,7 @@
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="15" t="str">
         <f aca="false">CONCATENATE(F38, " арт. ", E38, " цвет ", G38, ". ", J38)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="3" t="s">
@@ -4312,7 +4268,7 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="15" t="str">
         <f aca="false">CONCATENATE(F39, " арт. ", E39, " цвет ", G39, ". ", J39)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="3" t="s">
@@ -4333,7 +4289,7 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="15" t="str">
         <f aca="false">CONCATENATE(F40, " арт. ", E40, " цвет ", G40, ". ", J40)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="3" t="s">
@@ -4354,7 +4310,7 @@
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="15" t="str">
         <f aca="false">CONCATENATE(F41, " арт. ", E41, " цвет ", G41, ". ", J41)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="3" t="s">
@@ -4375,7 +4331,7 @@
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="15" t="str">
         <f aca="false">CONCATENATE(F42, " арт. ", E42, " цвет ", G42, ". ", J42)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="3" t="s">
@@ -4396,7 +4352,7 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="15" t="str">
         <f aca="false">CONCATENATE(F43, " арт. ", E43, " цвет ", G43, ". ", J43)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="3" t="s">
@@ -4417,7 +4373,7 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="15" t="str">
         <f aca="false">CONCATENATE(F44, " арт. ", E44, " цвет ", G44, ". ", J44)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="3" t="s">
@@ -4438,7 +4394,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="15" t="str">
         <f aca="false">CONCATENATE(F45, " арт. ", E45, " цвет ", G45, ". ", J45)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="3" t="s">
@@ -4459,7 +4415,7 @@
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="15" t="str">
         <f aca="false">CONCATENATE(F46, " арт. ", E46, " цвет ", G46, ". ", J46)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="3" t="s">
@@ -4480,7 +4436,7 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="15" t="str">
         <f aca="false">CONCATENATE(F47, " арт. ", E47, " цвет ", G47, ". ", J47)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="3" t="s">
@@ -4501,7 +4457,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="15" t="str">
         <f aca="false">CONCATENATE(F48, " арт. ", E48, " цвет ", G48, ". ", J48)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="3" t="s">
@@ -4522,7 +4478,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="15" t="str">
         <f aca="false">CONCATENATE(F49, " арт. ", E49, " цвет ", G49, ". ", J49)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="3" t="s">
@@ -4543,7 +4499,7 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="15" t="str">
         <f aca="false">CONCATENATE(F50, " арт. ", E50, " цвет ", G50, ". ", J50)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="3" t="s">
@@ -4564,7 +4520,7 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="15" t="str">
         <f aca="false">CONCATENATE(F51, " арт. ", E51, " цвет ", G51, ". ", J51)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="3" t="s">
@@ -4585,7 +4541,7 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="15" t="str">
         <f aca="false">CONCATENATE(F52, " арт. ", E52, " цвет ", G52, ". ", J52)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="3" t="s">
@@ -4606,7 +4562,7 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="15" t="str">
         <f aca="false">CONCATENATE(F53, " арт. ", E53, " цвет ", G53, ". ", J53)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="3" t="s">
@@ -4627,7 +4583,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="15" t="str">
         <f aca="false">CONCATENATE(F54, " арт. ", E54, " цвет ", G54, ". ", J54)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="3" t="s">
@@ -4648,7 +4604,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="15" t="str">
         <f aca="false">CONCATENATE(F55, " арт. ", E55, " цвет ", G55, ". ", J55)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="3" t="s">
@@ -4669,7 +4625,7 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="15" t="str">
         <f aca="false">CONCATENATE(F56, " арт. ", E56, " цвет ", G56, ". ", J56)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="3" t="s">
@@ -4690,7 +4646,7 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="15" t="str">
         <f aca="false">CONCATENATE(F57, " арт. ", E57, " цвет ", G57, ". ", J57)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="3" t="s">
@@ -4711,7 +4667,7 @@
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="15" t="str">
         <f aca="false">CONCATENATE(F58, " арт. ", E58, " цвет ", G58, ". ", J58)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="3" t="s">
@@ -4732,7 +4688,7 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="15" t="str">
         <f aca="false">CONCATENATE(F59, " арт. ", E59, " цвет ", G59, ". ", J59)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="3" t="s">
@@ -4753,7 +4709,7 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="15" t="str">
         <f aca="false">CONCATENATE(F60, " арт. ", E60, " цвет ", G60, ". ", J60)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="3" t="s">
@@ -4774,7 +4730,7 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="15" t="str">
         <f aca="false">CONCATENATE(F61, " арт. ", E61, " цвет ", G61, ". ", J61)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="3" t="s">
@@ -4795,7 +4751,7 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="15" t="str">
         <f aca="false">CONCATENATE(F62, " арт. ", E62, " цвет ", G62, ". ", J62)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="3" t="s">
@@ -4816,7 +4772,7 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="15" t="str">
         <f aca="false">CONCATENATE(F63, " арт. ", E63, " цвет ", G63, ". ", J63)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="3" t="s">
@@ -4837,7 +4793,7 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="15" t="str">
         <f aca="false">CONCATENATE(F64, " арт. ", E64, " цвет ", G64, ". ", J64)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="3" t="s">
@@ -4858,7 +4814,7 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="15" t="str">
         <f aca="false">CONCATENATE(F65, " арт. ", E65, " цвет ", G65, ". ", J65)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="3" t="s">
@@ -4879,7 +4835,7 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="15" t="str">
         <f aca="false">CONCATENATE(F66, " арт. ", E66, " цвет ", G66, ". ", J66)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="3" t="s">
@@ -4900,7 +4856,7 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="15" t="str">
         <f aca="false">CONCATENATE(F67, " арт. ", E67, " цвет ", G67, ". ", J67)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="3" t="s">
@@ -4921,7 +4877,7 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="15" t="str">
         <f aca="false">CONCATENATE(F68, " арт. ", E68, " цвет ", G68, ". ", J68)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="3" t="s">
@@ -4942,7 +4898,7 @@
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="15" t="str">
         <f aca="false">CONCATENATE(F69, " арт. ", E69, " цвет ", G69, ". ", J69)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="3" t="s">
@@ -4963,7 +4919,7 @@
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="15" t="str">
         <f aca="false">CONCATENATE(F70, " арт. ", E70, " цвет ", G70, ". ", J70)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="3" t="s">
@@ -4984,7 +4940,7 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="15" t="str">
         <f aca="false">CONCATENATE(F71, " арт. ", E71, " цвет ", G71, ". ", J71)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="3" t="s">
@@ -5005,7 +4961,7 @@
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="15" t="str">
         <f aca="false">CONCATENATE(F72, " арт. ", E72, " цвет ", G72, ". ", J72)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="3" t="s">
@@ -5026,7 +4982,7 @@
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="15" t="str">
         <f aca="false">CONCATENATE(F73, " арт. ", E73, " цвет ", G73, ". ", J73)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="3" t="s">
@@ -5047,7 +5003,7 @@
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="15" t="str">
         <f aca="false">CONCATENATE(F74, " арт. ", E74, " цвет ", G74, ". ", J74)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="3" t="s">
@@ -5068,7 +5024,7 @@
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="15" t="str">
         <f aca="false">CONCATENATE(F75, " арт. ", E75, " цвет ", G75, ". ", J75)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="3" t="s">
@@ -5089,7 +5045,7 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="15" t="str">
         <f aca="false">CONCATENATE(F76, " арт. ", E76, " цвет ", G76, ". ", J76)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="3" t="s">
@@ -5110,7 +5066,7 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="15" t="str">
         <f aca="false">CONCATENATE(F77, " арт. ", E77, " цвет ", G77, ". ", J77)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="3" t="s">
@@ -5131,7 +5087,7 @@
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="15" t="str">
         <f aca="false">CONCATENATE(F78, " арт. ", E78, " цвет ", G78, ". ", J78)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="3" t="s">
@@ -5152,7 +5108,7 @@
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="15" t="str">
         <f aca="false">CONCATENATE(F79, " арт. ", E79, " цвет ", G79, ". ", J79)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="3" t="s">
@@ -5173,7 +5129,7 @@
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="15" t="str">
         <f aca="false">CONCATENATE(F80, " арт. ", E80, " цвет ", G80, ". ", J80)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="3" t="s">
@@ -5194,7 +5150,7 @@
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="15" t="str">
         <f aca="false">CONCATENATE(F81, " арт. ", E81, " цвет ", G81, ". ", J81)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="3" t="s">
@@ -5215,7 +5171,7 @@
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="15" t="str">
         <f aca="false">CONCATENATE(F82, " арт. ", E82, " цвет ", G82, ". ", J82)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="3" t="s">
@@ -5236,7 +5192,7 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="15" t="str">
         <f aca="false">CONCATENATE(F83, " арт. ", E83, " цвет ", G83, ". ", J83)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="3" t="s">
@@ -5257,7 +5213,7 @@
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="15" t="str">
         <f aca="false">CONCATENATE(F84, " арт. ", E84, " цвет ", G84, ". ", J84)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="3" t="s">
@@ -5278,7 +5234,7 @@
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="15" t="str">
         <f aca="false">CONCATENATE(F85, " арт. ", E85, " цвет ", G85, ". ", J85)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="3" t="s">
@@ -5299,7 +5255,7 @@
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="15" t="str">
         <f aca="false">CONCATENATE(F86, " арт. ", E86, " цвет ", G86, ". ", J86)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="3" t="s">
@@ -5320,7 +5276,7 @@
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="15" t="str">
         <f aca="false">CONCATENATE(F87, " арт. ", E87, " цвет ", G87, ". ", J87)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="3" t="s">
@@ -5341,7 +5297,7 @@
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="15" t="str">
         <f aca="false">CONCATENATE(F88, " арт. ", E88, " цвет ", G88, ". ", J88)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="3" t="s">
@@ -5362,7 +5318,7 @@
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="15" t="str">
         <f aca="false">CONCATENATE(F89, " арт. ", E89, " цвет ", G89, ". ", J89)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="3" t="s">
@@ -5383,7 +5339,7 @@
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="15" t="str">
         <f aca="false">CONCATENATE(F90, " арт. ", E90, " цвет ", G90, ". ", J90)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="3" t="s">
@@ -5404,7 +5360,7 @@
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="15" t="str">
         <f aca="false">CONCATENATE(F91, " арт. ", E91, " цвет ", G91, ". ", J91)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="3" t="s">
@@ -5425,7 +5381,7 @@
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="15" t="str">
         <f aca="false">CONCATENATE(F92, " арт. ", E92, " цвет ", G92, ". ", J92)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="3" t="s">
@@ -5446,7 +5402,7 @@
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="15" t="str">
         <f aca="false">CONCATENATE(F93, " арт. ", E93, " цвет ", G93, ". ", J93)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="3" t="s">
@@ -5467,7 +5423,7 @@
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="15" t="str">
         <f aca="false">CONCATENATE(F94, " арт. ", E94, " цвет ", G94, ". ", J94)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="3" t="s">
@@ -5488,7 +5444,7 @@
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="15" t="str">
         <f aca="false">CONCATENATE(F95, " арт. ", E95, " цвет ", G95, ". ", J95)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="3" t="s">
@@ -5509,7 +5465,7 @@
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="15" t="str">
         <f aca="false">CONCATENATE(F96, " арт. ", E96, " цвет ", G96, ". ", J96)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="3" t="s">
@@ -5530,7 +5486,7 @@
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="15" t="str">
         <f aca="false">CONCATENATE(F97, " арт. ", E97, " цвет ", G97, ". ", J97)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="3" t="s">
@@ -5551,7 +5507,7 @@
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="15" t="str">
         <f aca="false">CONCATENATE(F98, " арт. ", E98, " цвет ", G98, ". ", J98)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="3" t="s">
@@ -5572,7 +5528,7 @@
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="15" t="str">
         <f aca="false">CONCATENATE(F99, " арт. ", E99, " цвет ", G99, ". ", J99)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="3" t="s">
@@ -5593,7 +5549,7 @@
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="15" t="str">
         <f aca="false">CONCATENATE(F100, " арт. ", E100, " цвет ", G100, ". ", J100)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="3" t="s">
@@ -5614,7 +5570,7 @@
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="15" t="str">
         <f aca="false">CONCATENATE(F101, " арт. ", E101, " цвет ", G101, ". ", J101)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="3" t="s">
@@ -5635,7 +5591,7 @@
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="15" t="str">
         <f aca="false">CONCATENATE(F102, " арт. ", E102, " цвет ", G102, ". ", J102)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="3" t="s">
@@ -5656,7 +5612,7 @@
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="15" t="str">
         <f aca="false">CONCATENATE(F103, " арт. ", E103, " цвет ", G103, ". ", J103)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="3" t="s">
@@ -5677,7 +5633,7 @@
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="15" t="str">
         <f aca="false">CONCATENATE(F104, " арт. ", E104, " цвет ", G104, ". ", J104)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="3" t="s">
@@ -5698,7 +5654,7 @@
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="15" t="str">
         <f aca="false">CONCATENATE(F105, " арт. ", E105, " цвет ", G105, ". ", J105)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="3" t="s">
@@ -5719,7 +5675,7 @@
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="15" t="str">
         <f aca="false">CONCATENATE(F106, " арт. ", E106, " цвет ", G106, ". ", J106)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="3" t="s">
@@ -5740,7 +5696,7 @@
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="15" t="str">
         <f aca="false">CONCATENATE(F107, " арт. ", E107, " цвет ", G107, ". ", J107)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="3" t="s">
@@ -5761,7 +5717,7 @@
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="15" t="str">
         <f aca="false">CONCATENATE(F108, " арт. ", E108, " цвет ", G108, ". ", J108)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="3" t="s">
@@ -5782,7 +5738,7 @@
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="15" t="str">
         <f aca="false">CONCATENATE(F109, " арт. ", E109, " цвет ", G109, ". ", J109)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="3" t="s">
@@ -5803,7 +5759,7 @@
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="15" t="str">
         <f aca="false">CONCATENATE(F110, " арт. ", E110, " цвет ", G110, ". ", J110)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="3" t="s">
@@ -5824,7 +5780,7 @@
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="15" t="str">
         <f aca="false">CONCATENATE(F111, " арт. ", E111, " цвет ", G111, ". ", J111)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="3" t="s">
@@ -5845,7 +5801,7 @@
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="15" t="str">
         <f aca="false">CONCATENATE(F112, " арт. ", E112, " цвет ", G112, ". ", J112)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="3" t="s">
@@ -5866,7 +5822,7 @@
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="15" t="str">
         <f aca="false">CONCATENATE(F113, " арт. ", E113, " цвет ", G113, ". ", J113)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="3" t="s">
@@ -5887,7 +5843,7 @@
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="15" t="str">
         <f aca="false">CONCATENATE(F114, " арт. ", E114, " цвет ", G114, ". ", J114)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="3" t="s">
@@ -5908,7 +5864,7 @@
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="15" t="str">
         <f aca="false">CONCATENATE(F115, " арт. ", E115, " цвет ", G115, ". ", J115)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="3" t="s">
@@ -5929,7 +5885,7 @@
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="15" t="str">
         <f aca="false">CONCATENATE(F116, " арт. ", E116, " цвет ", G116, ". ", J116)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="3" t="s">
@@ -5950,7 +5906,7 @@
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="15" t="str">
         <f aca="false">CONCATENATE(F117, " арт. ", E117, " цвет ", G117, ". ", J117)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="3" t="s">
@@ -5971,7 +5927,7 @@
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="15" t="str">
         <f aca="false">CONCATENATE(F118, " арт. ", E118, " цвет ", G118, ". ", J118)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="3" t="s">
@@ -5992,7 +5948,7 @@
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="15" t="str">
         <f aca="false">CONCATENATE(F119, " арт. ", E119, " цвет ", G119, ". ", J119)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="3" t="s">
@@ -6013,7 +5969,7 @@
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="15" t="str">
         <f aca="false">CONCATENATE(F120, " арт. ", E120, " цвет ", G120, ". ", J120)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="3" t="s">
@@ -6034,7 +5990,7 @@
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="15" t="str">
         <f aca="false">CONCATENATE(F121, " арт. ", E121, " цвет ", G121, ". ", J121)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="3" t="s">
@@ -6055,7 +6011,7 @@
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="15" t="str">
         <f aca="false">CONCATENATE(F122, " арт. ", E122, " цвет ", G122, ". ", J122)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="3" t="s">
@@ -6076,7 +6032,7 @@
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="15" t="str">
         <f aca="false">CONCATENATE(F123, " арт. ", E123, " цвет ", G123, ". ", J123)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="3" t="s">
@@ -6097,7 +6053,7 @@
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="15" t="str">
         <f aca="false">CONCATENATE(F124, " арт. ", E124, " цвет ", G124, ". ", J124)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="3" t="s">
@@ -6118,7 +6074,7 @@
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="15" t="str">
         <f aca="false">CONCATENATE(F125, " арт. ", E125, " цвет ", G125, ". ", J125)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="3" t="s">
@@ -6139,7 +6095,7 @@
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="15" t="str">
         <f aca="false">CONCATENATE(F126, " арт. ", E126, " цвет ", G126, ". ", J126)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="3" t="s">
@@ -6160,7 +6116,7 @@
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="15" t="str">
         <f aca="false">CONCATENATE(F127, " арт. ", E127, " цвет ", G127, ". ", J127)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="3" t="s">
@@ -6181,7 +6137,7 @@
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="15" t="str">
         <f aca="false">CONCATENATE(F128, " арт. ", E128, " цвет ", G128, ". ", J128)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="3" t="s">
@@ -6202,7 +6158,7 @@
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="15" t="str">
         <f aca="false">CONCATENATE(F129, " арт. ", E129, " цвет ", G129, ". ", J129)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="3" t="s">
@@ -6223,7 +6179,7 @@
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="15" t="str">
         <f aca="false">CONCATENATE(F130, " арт. ", E130, " цвет ", G130, ". ", J130)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="3" t="s">
@@ -6244,7 +6200,7 @@
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="15" t="str">
         <f aca="false">CONCATENATE(F131, " арт. ", E131, " цвет ", G131, ". ", J131)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="3" t="s">
@@ -6265,7 +6221,7 @@
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="15" t="str">
         <f aca="false">CONCATENATE(F132, " арт. ", E132, " цвет ", G132, ". ", J132)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="3" t="s">
@@ -6286,7 +6242,7 @@
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="15" t="str">
         <f aca="false">CONCATENATE(F133, " арт. ", E133, " цвет ", G133, ". ", J133)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="3" t="s">
@@ -6307,7 +6263,7 @@
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="15" t="str">
         <f aca="false">CONCATENATE(F134, " арт. ", E134, " цвет ", G134, ". ", J134)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="3" t="s">
@@ -6328,7 +6284,7 @@
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="15" t="str">
         <f aca="false">CONCATENATE(F135, " арт. ", E135, " цвет ", G135, ". ", J135)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="3" t="s">
@@ -6349,7 +6305,7 @@
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="15" t="str">
         <f aca="false">CONCATENATE(F136, " арт. ", E136, " цвет ", G136, ". ", J136)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="3" t="s">
@@ -6370,7 +6326,7 @@
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="15" t="str">
         <f aca="false">CONCATENATE(F137, " арт. ", E137, " цвет ", G137, ". ", J137)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="3" t="s">
@@ -6391,7 +6347,7 @@
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="15" t="str">
         <f aca="false">CONCATENATE(F138, " арт. ", E138, " цвет ", G138, ". ", J138)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="3" t="s">
@@ -6412,7 +6368,7 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="15" t="str">
         <f aca="false">CONCATENATE(F139, " арт. ", E139, " цвет ", G139, ". ", J139)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="3" t="s">
@@ -6433,7 +6389,7 @@
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="15" t="str">
         <f aca="false">CONCATENATE(F140, " арт. ", E140, " цвет ", G140, ". ", J140)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="3" t="s">
@@ -6454,7 +6410,7 @@
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="15" t="str">
         <f aca="false">CONCATENATE(F141, " арт. ", E141, " цвет ", G141, ". ", J141)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="3" t="s">
@@ -6475,7 +6431,7 @@
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="15" t="str">
         <f aca="false">CONCATENATE(F142, " арт. ", E142, " цвет ", G142, ". ", J142)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="3" t="s">
@@ -6496,7 +6452,7 @@
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="15" t="str">
         <f aca="false">CONCATENATE(F143, " арт. ", E143, " цвет ", G143, ". ", J143)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="3" t="s">
@@ -6517,7 +6473,7 @@
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="15" t="str">
         <f aca="false">CONCATENATE(F144, " арт. ", E144, " цвет ", G144, ". ", J144)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="3" t="s">
@@ -6538,7 +6494,7 @@
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="15" t="str">
         <f aca="false">CONCATENATE(F145, " арт. ", E145, " цвет ", G145, ". ", J145)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="3" t="s">
@@ -6559,7 +6515,7 @@
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="15" t="str">
         <f aca="false">CONCATENATE(F146, " арт. ", E146, " цвет ", G146, ". ", J146)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="3" t="s">
@@ -6580,7 +6536,7 @@
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="15" t="str">
         <f aca="false">CONCATENATE(F147, " арт. ", E147, " цвет ", G147, ". ", J147)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="3" t="s">
@@ -6601,7 +6557,7 @@
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="15" t="str">
         <f aca="false">CONCATENATE(F148, " арт. ", E148, " цвет ", G148, ". ", J148)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="3" t="s">
@@ -6622,7 +6578,7 @@
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="15" t="str">
         <f aca="false">CONCATENATE(F149, " арт. ", E149, " цвет ", G149, ". ", J149)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="3" t="s">
@@ -6643,7 +6599,7 @@
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="15" t="str">
         <f aca="false">CONCATENATE(F150, " арт. ", E150, " цвет ", G150, ". ", J150)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="3" t="s">
@@ -6664,7 +6620,7 @@
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="15" t="str">
         <f aca="false">CONCATENATE(F151, " арт. ", E151, " цвет ", G151, ". ", J151)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="3" t="s">
@@ -6685,7 +6641,7 @@
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="15" t="str">
         <f aca="false">CONCATENATE(F152, " арт. ", E152, " цвет ", G152, ". ", J152)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="3" t="s">
@@ -6706,7 +6662,7 @@
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="15" t="str">
         <f aca="false">CONCATENATE(F153, " арт. ", E153, " цвет ", G153, ". ", J153)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="3" t="s">
@@ -6727,7 +6683,7 @@
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="15" t="str">
         <f aca="false">CONCATENATE(F154, " арт. ", E154, " цвет ", G154, ". ", J154)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="3" t="s">
@@ -6748,7 +6704,7 @@
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="15" t="str">
         <f aca="false">CONCATENATE(F155, " арт. ", E155, " цвет ", G155, ". ", J155)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="3" t="s">
@@ -6769,7 +6725,7 @@
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="15" t="str">
         <f aca="false">CONCATENATE(F156, " арт. ", E156, " цвет ", G156, ". ", J156)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="3" t="s">
@@ -6790,7 +6746,7 @@
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="15" t="str">
         <f aca="false">CONCATENATE(F157, " арт. ", E157, " цвет ", G157, ". ", J157)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C157" s="16"/>
       <c r="D157" s="3" t="s">
@@ -6811,7 +6767,7 @@
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="15" t="str">
         <f aca="false">CONCATENATE(F158, " арт. ", E158, " цвет ", G158, ". ", J158)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="3" t="s">
@@ -6832,7 +6788,7 @@
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="15" t="str">
         <f aca="false">CONCATENATE(F159, " арт. ", E159, " цвет ", G159, ". ", J159)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="3" t="s">
@@ -6853,7 +6809,7 @@
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="15" t="str">
         <f aca="false">CONCATENATE(F160, " арт. ", E160, " цвет ", G160, ". ", J160)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="3" t="s">
@@ -6874,7 +6830,7 @@
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="15" t="str">
         <f aca="false">CONCATENATE(F161, " арт. ", E161, " цвет ", G161, ". ", J161)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="3" t="s">
@@ -6895,7 +6851,7 @@
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="15" t="str">
         <f aca="false">CONCATENATE(F162, " арт. ", E162, " цвет ", G162, ". ", J162)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="3" t="s">
@@ -6916,7 +6872,7 @@
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="15" t="str">
         <f aca="false">CONCATENATE(F163, " арт. ", E163, " цвет ", G163, ". ", J163)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="3" t="s">
@@ -6937,7 +6893,7 @@
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="15" t="str">
         <f aca="false">CONCATENATE(F164, " арт. ", E164, " цвет ", G164, ". ", J164)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="3" t="s">
@@ -6958,7 +6914,7 @@
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="15" t="str">
         <f aca="false">CONCATENATE(F165, " арт. ", E165, " цвет ", G165, ". ", J165)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="3" t="s">
@@ -6979,7 +6935,7 @@
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="15" t="str">
         <f aca="false">CONCATENATE(F166, " арт. ", E166, " цвет ", G166, ". ", J166)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="3" t="s">
@@ -7000,7 +6956,7 @@
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="15" t="str">
         <f aca="false">CONCATENATE(F167, " арт. ", E167, " цвет ", G167, ". ", J167)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C167" s="16"/>
       <c r="D167" s="3" t="s">
@@ -7021,7 +6977,7 @@
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="15" t="str">
         <f aca="false">CONCATENATE(F168, " арт. ", E168, " цвет ", G168, ". ", J168)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C168" s="16"/>
       <c r="D168" s="3" t="s">
@@ -7042,7 +6998,7 @@
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="15" t="str">
         <f aca="false">CONCATENATE(F169, " арт. ", E169, " цвет ", G169, ". ", J169)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C169" s="16"/>
       <c r="D169" s="3" t="s">
@@ -7063,7 +7019,7 @@
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="15" t="str">
         <f aca="false">CONCATENATE(F170, " арт. ", E170, " цвет ", G170, ". ", J170)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="3" t="s">
@@ -7084,7 +7040,7 @@
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="15" t="str">
         <f aca="false">CONCATENATE(F171, " арт. ", E171, " цвет ", G171, ". ", J171)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="3" t="s">
@@ -7105,7 +7061,7 @@
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="15" t="str">
         <f aca="false">CONCATENATE(F172, " арт. ", E172, " цвет ", G172, ". ", J172)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="3" t="s">
@@ -7126,7 +7082,7 @@
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="15" t="str">
         <f aca="false">CONCATENATE(F173, " арт. ", E173, " цвет ", G173, ". ", J173)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C173" s="16"/>
       <c r="D173" s="3" t="s">
@@ -7147,7 +7103,7 @@
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="15" t="str">
         <f aca="false">CONCATENATE(F174, " арт. ", E174, " цвет ", G174, ". ", J174)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C174" s="16"/>
       <c r="D174" s="3" t="s">
@@ -7168,7 +7124,7 @@
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="15" t="str">
         <f aca="false">CONCATENATE(F175, " арт. ", E175, " цвет ", G175, ". ", J175)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="3" t="s">
@@ -7189,7 +7145,7 @@
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="15" t="str">
         <f aca="false">CONCATENATE(F176, " арт. ", E176, " цвет ", G176, ". ", J176)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C176" s="16"/>
       <c r="D176" s="3" t="s">
@@ -7210,7 +7166,7 @@
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="15" t="str">
         <f aca="false">CONCATENATE(F177, " арт. ", E177, " цвет ", G177, ". ", J177)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C177" s="16"/>
       <c r="D177" s="3" t="s">
@@ -7231,7 +7187,7 @@
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="15" t="str">
         <f aca="false">CONCATENATE(F178, " арт. ", E178, " цвет ", G178, ". ", J178)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C178" s="16"/>
       <c r="D178" s="3" t="s">
@@ -7252,7 +7208,7 @@
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="15" t="str">
         <f aca="false">CONCATENATE(F179, " арт. ", E179, " цвет ", G179, ". ", J179)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C179" s="16"/>
       <c r="D179" s="3" t="s">
@@ -7273,7 +7229,7 @@
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="15" t="str">
         <f aca="false">CONCATENATE(F180, " арт. ", E180, " цвет ", G180, ". ", J180)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="3" t="s">
@@ -7294,7 +7250,7 @@
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="15" t="str">
         <f aca="false">CONCATENATE(F181, " арт. ", E181, " цвет ", G181, ". ", J181)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="3" t="s">
@@ -7315,7 +7271,7 @@
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="15" t="str">
         <f aca="false">CONCATENATE(F182, " арт. ", E182, " цвет ", G182, ". ", J182)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="3" t="s">
@@ -7336,7 +7292,7 @@
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="15" t="str">
         <f aca="false">CONCATENATE(F183, " арт. ", E183, " цвет ", G183, ". ", J183)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C183" s="16"/>
       <c r="D183" s="3" t="s">
@@ -7357,7 +7313,7 @@
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="15" t="str">
         <f aca="false">CONCATENATE(F184, " арт. ", E184, " цвет ", G184, ". ", J184)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C184" s="16"/>
       <c r="D184" s="3" t="s">
@@ -7378,7 +7334,7 @@
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="15" t="str">
         <f aca="false">CONCATENATE(F185, " арт. ", E185, " цвет ", G185, ". ", J185)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="3" t="s">
@@ -7399,7 +7355,7 @@
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="15" t="str">
         <f aca="false">CONCATENATE(F186, " арт. ", E186, " цвет ", G186, ". ", J186)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="3" t="s">
@@ -7420,7 +7376,7 @@
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="15" t="str">
         <f aca="false">CONCATENATE(F187, " арт. ", E187, " цвет ", G187, ". ", J187)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="3" t="s">
@@ -7441,7 +7397,7 @@
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="15" t="str">
         <f aca="false">CONCATENATE(F188, " арт. ", E188, " цвет ", G188, ". ", J188)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C188" s="16"/>
       <c r="D188" s="3" t="s">
@@ -7462,7 +7418,7 @@
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="15" t="str">
         <f aca="false">CONCATENATE(F189, " арт. ", E189, " цвет ", G189, ". ", J189)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C189" s="16"/>
       <c r="D189" s="3" t="s">
@@ -7483,7 +7439,7 @@
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="15" t="str">
         <f aca="false">CONCATENATE(F190, " арт. ", E190, " цвет ", G190, ". ", J190)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C190" s="16"/>
       <c r="D190" s="3" t="s">
@@ -7504,7 +7460,7 @@
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="15" t="str">
         <f aca="false">CONCATENATE(F191, " арт. ", E191, " цвет ", G191, ". ", J191)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="3" t="s">
@@ -7525,7 +7481,7 @@
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="15" t="str">
         <f aca="false">CONCATENATE(F192, " арт. ", E192, " цвет ", G192, ". ", J192)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="3" t="s">
@@ -7546,7 +7502,7 @@
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="15" t="str">
         <f aca="false">CONCATENATE(F193, " арт. ", E193, " цвет ", G193, ". ", J193)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C193" s="16"/>
       <c r="D193" s="3" t="s">
@@ -7567,7 +7523,7 @@
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="15" t="str">
         <f aca="false">CONCATENATE(F194, " арт. ", E194, " цвет ", G194, ". ", J194)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="3" t="s">
@@ -7588,7 +7544,7 @@
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="15" t="str">
         <f aca="false">CONCATENATE(F195, " арт. ", E195, " цвет ", G195, ". ", J195)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C195" s="16"/>
       <c r="D195" s="3" t="s">
@@ -7609,7 +7565,7 @@
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="15" t="str">
         <f aca="false">CONCATENATE(F196, " арт. ", E196, " цвет ", G196, ". ", J196)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C196" s="16"/>
       <c r="D196" s="3" t="s">
@@ -7630,7 +7586,7 @@
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="15" t="str">
         <f aca="false">CONCATENATE(F197, " арт. ", E197, " цвет ", G197, ". ", J197)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C197" s="16"/>
       <c r="D197" s="3" t="s">
@@ -7651,7 +7607,7 @@
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="15" t="str">
         <f aca="false">CONCATENATE(F198, " арт. ", E198, " цвет ", G198, ". ", J198)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C198" s="16"/>
       <c r="D198" s="3" t="s">
@@ -7672,7 +7628,7 @@
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="15" t="str">
         <f aca="false">CONCATENATE(F199, " арт. ", E199, " цвет ", G199, ". ", J199)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C199" s="16"/>
       <c r="D199" s="3" t="s">
@@ -7693,7 +7649,7 @@
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="15" t="str">
         <f aca="false">CONCATENATE(F200, " арт. ", E200, " цвет ", G200, ". ", J200)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="3" t="s">
@@ -7714,7 +7670,7 @@
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="15" t="str">
         <f aca="false">CONCATENATE(F201, " арт. ", E201, " цвет ", G201, ". ", J201)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C201" s="16"/>
       <c r="D201" s="3" t="s">
@@ -7735,7 +7691,7 @@
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="15" t="str">
         <f aca="false">CONCATENATE(F202, " арт. ", E202, " цвет ", G202, ". ", J202)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C202" s="16"/>
       <c r="D202" s="3" t="s">
@@ -7756,7 +7712,7 @@
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="15" t="str">
         <f aca="false">CONCATENATE(F203, " арт. ", E203, " цвет ", G203, ". ", J203)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C203" s="16"/>
       <c r="D203" s="3" t="s">
@@ -7777,7 +7733,7 @@
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="15" t="str">
         <f aca="false">CONCATENATE(F204, " арт. ", E204, " цвет ", G204, ". ", J204)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C204" s="16"/>
       <c r="D204" s="3" t="s">
@@ -7798,7 +7754,7 @@
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="15" t="str">
         <f aca="false">CONCATENATE(F205, " арт. ", E205, " цвет ", G205, ". ", J205)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C205" s="16"/>
       <c r="D205" s="3" t="s">
@@ -7819,7 +7775,7 @@
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="15" t="str">
         <f aca="false">CONCATENATE(F206, " арт. ", E206, " цвет ", G206, ". ", J206)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C206" s="16"/>
       <c r="D206" s="3" t="s">
@@ -7840,7 +7796,7 @@
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="15" t="str">
         <f aca="false">CONCATENATE(F207, " арт. ", E207, " цвет ", G207, ". ", J207)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C207" s="16"/>
       <c r="D207" s="3" t="s">
@@ -7861,7 +7817,7 @@
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="15" t="str">
         <f aca="false">CONCATENATE(F208, " арт. ", E208, " цвет ", G208, ". ", J208)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C208" s="16"/>
       <c r="D208" s="3" t="s">
@@ -7882,7 +7838,7 @@
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="15" t="str">
         <f aca="false">CONCATENATE(F209, " арт. ", E209, " цвет ", G209, ". ", J209)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C209" s="16"/>
       <c r="D209" s="3" t="s">
@@ -7903,7 +7859,7 @@
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="15" t="str">
         <f aca="false">CONCATENATE(F210, " арт. ", E210, " цвет ", G210, ". ", J210)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C210" s="16"/>
       <c r="D210" s="3" t="s">
@@ -7924,7 +7880,7 @@
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="15" t="str">
         <f aca="false">CONCATENATE(F211, " арт. ", E211, " цвет ", G211, ". ", J211)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C211" s="16"/>
       <c r="D211" s="3" t="s">
@@ -7945,7 +7901,7 @@
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="15" t="str">
         <f aca="false">CONCATENATE(F212, " арт. ", E212, " цвет ", G212, ". ", J212)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C212" s="16"/>
       <c r="D212" s="3" t="s">
@@ -7966,7 +7922,7 @@
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="15" t="str">
         <f aca="false">CONCATENATE(F213, " арт. ", E213, " цвет ", G213, ". ", J213)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C213" s="16"/>
       <c r="D213" s="3" t="s">
@@ -7987,7 +7943,7 @@
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="15" t="str">
         <f aca="false">CONCATENATE(F214, " арт. ", E214, " цвет ", G214, ". ", J214)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="3" t="s">
@@ -8008,7 +7964,7 @@
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="15" t="str">
         <f aca="false">CONCATENATE(F215, " арт. ", E215, " цвет ", G215, ". ", J215)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="3" t="s">
@@ -8029,7 +7985,7 @@
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="15" t="str">
         <f aca="false">CONCATENATE(F216, " арт. ", E216, " цвет ", G216, ". ", J216)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="3" t="s">
@@ -8050,7 +8006,7 @@
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="15" t="str">
         <f aca="false">CONCATENATE(F217, " арт. ", E217, " цвет ", G217, ". ", J217)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="3" t="s">
@@ -8071,7 +8027,7 @@
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="15" t="str">
         <f aca="false">CONCATENATE(F218, " арт. ", E218, " цвет ", G218, ". ", J218)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="3" t="s">
@@ -8092,7 +8048,7 @@
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="15" t="str">
         <f aca="false">CONCATENATE(F219, " арт. ", E219, " цвет ", G219, ". ", J219)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="3" t="s">
@@ -8113,7 +8069,7 @@
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="15" t="str">
         <f aca="false">CONCATENATE(F220, " арт. ", E220, " цвет ", G220, ". ", J220)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C220" s="16"/>
       <c r="D220" s="3" t="s">
@@ -8134,7 +8090,7 @@
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="15" t="str">
         <f aca="false">CONCATENATE(F221, " арт. ", E221, " цвет ", G221, ". ", J221)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="3" t="s">
@@ -8155,7 +8111,7 @@
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="15" t="str">
         <f aca="false">CONCATENATE(F222, " арт. ", E222, " цвет ", G222, ". ", J222)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="3" t="s">
@@ -8176,7 +8132,7 @@
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="15" t="str">
         <f aca="false">CONCATENATE(F223, " арт. ", E223, " цвет ", G223, ". ", J223)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="3" t="s">
@@ -8197,7 +8153,7 @@
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="15" t="str">
         <f aca="false">CONCATENATE(F224, " арт. ", E224, " цвет ", G224, ". ", J224)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C224" s="16"/>
       <c r="D224" s="3" t="s">
@@ -8218,7 +8174,7 @@
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="15" t="str">
         <f aca="false">CONCATENATE(F225, " арт. ", E225, " цвет ", G225, ". ", J225)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C225" s="16"/>
       <c r="D225" s="3" t="s">
@@ -8239,7 +8195,7 @@
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="15" t="str">
         <f aca="false">CONCATENATE(F226, " арт. ", E226, " цвет ", G226, ". ", J226)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C226" s="16"/>
       <c r="D226" s="3" t="s">
@@ -8260,7 +8216,7 @@
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="15" t="str">
         <f aca="false">CONCATENATE(F227, " арт. ", E227, " цвет ", G227, ". ", J227)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C227" s="16"/>
       <c r="D227" s="3" t="s">
@@ -8281,7 +8237,7 @@
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="15" t="str">
         <f aca="false">CONCATENATE(F228, " арт. ", E228, " цвет ", G228, ". ", J228)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C228" s="16"/>
       <c r="D228" s="3" t="s">
@@ -8302,7 +8258,7 @@
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="15" t="str">
         <f aca="false">CONCATENATE(F229, " арт. ", E229, " цвет ", G229, ". ", J229)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C229" s="16"/>
       <c r="D229" s="3" t="s">
@@ -8323,7 +8279,7 @@
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="15" t="str">
         <f aca="false">CONCATENATE(F230, " арт. ", E230, " цвет ", G230, ". ", J230)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C230" s="16"/>
       <c r="D230" s="3" t="s">
@@ -8344,7 +8300,7 @@
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="15" t="str">
         <f aca="false">CONCATENATE(F231, " арт. ", E231, " цвет ", G231, ". ", J231)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C231" s="16"/>
       <c r="D231" s="3" t="s">
@@ -8365,7 +8321,7 @@
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="15" t="str">
         <f aca="false">CONCATENATE(F232, " арт. ", E232, " цвет ", G232, ". ", J232)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C232" s="16"/>
       <c r="D232" s="3" t="s">
@@ -8386,7 +8342,7 @@
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="15" t="str">
         <f aca="false">CONCATENATE(F233, " арт. ", E233, " цвет ", G233, ". ", J233)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C233" s="16"/>
       <c r="D233" s="3" t="s">
@@ -8407,7 +8363,7 @@
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="15" t="str">
         <f aca="false">CONCATENATE(F234, " арт. ", E234, " цвет ", G234, ". ", J234)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C234" s="16"/>
       <c r="D234" s="3" t="s">
@@ -8428,7 +8384,7 @@
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="15" t="str">
         <f aca="false">CONCATENATE(F235, " арт. ", E235, " цвет ", G235, ". ", J235)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C235" s="16"/>
       <c r="D235" s="3" t="s">
@@ -8449,7 +8405,7 @@
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="15" t="str">
         <f aca="false">CONCATENATE(F236, " арт. ", E236, " цвет ", G236, ". ", J236)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="3" t="s">
@@ -8470,7 +8426,7 @@
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="15" t="str">
         <f aca="false">CONCATENATE(F237, " арт. ", E237, " цвет ", G237, ". ", J237)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C237" s="16"/>
       <c r="D237" s="3" t="s">
@@ -8491,7 +8447,7 @@
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="15" t="str">
         <f aca="false">CONCATENATE(F238, " арт. ", E238, " цвет ", G238, ". ", J238)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C238" s="16"/>
       <c r="D238" s="3" t="s">
@@ -8512,7 +8468,7 @@
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="15" t="str">
         <f aca="false">CONCATENATE(F239, " арт. ", E239, " цвет ", G239, ". ", J239)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C239" s="16"/>
       <c r="D239" s="3" t="s">
@@ -8533,7 +8489,7 @@
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="15" t="str">
         <f aca="false">CONCATENATE(F240, " арт. ", E240, " цвет ", G240, ". ", J240)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C240" s="16"/>
       <c r="D240" s="3" t="s">
@@ -8554,7 +8510,7 @@
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="15" t="str">
         <f aca="false">CONCATENATE(F241, " арт. ", E241, " цвет ", G241, ". ", J241)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C241" s="16"/>
       <c r="D241" s="3" t="s">
@@ -8575,7 +8531,7 @@
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="15" t="str">
         <f aca="false">CONCATENATE(F242, " арт. ", E242, " цвет ", G242, ". ", J242)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C242" s="16"/>
       <c r="D242" s="3" t="s">
@@ -8596,7 +8552,7 @@
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="15" t="str">
         <f aca="false">CONCATENATE(F243, " арт. ", E243, " цвет ", G243, ". ", J243)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C243" s="16"/>
       <c r="D243" s="3" t="s">
@@ -8617,7 +8573,7 @@
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="15" t="str">
         <f aca="false">CONCATENATE(F244, " арт. ", E244, " цвет ", G244, ". ", J244)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C244" s="16"/>
       <c r="D244" s="3" t="s">
@@ -8638,7 +8594,7 @@
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="15" t="str">
         <f aca="false">CONCATENATE(F245, " арт. ", E245, " цвет ", G245, ". ", J245)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C245" s="16"/>
       <c r="D245" s="3" t="s">
@@ -8659,7 +8615,7 @@
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="15" t="str">
         <f aca="false">CONCATENATE(F246, " арт. ", E246, " цвет ", G246, ". ", J246)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C246" s="16"/>
       <c r="D246" s="3" t="s">
@@ -8680,7 +8636,7 @@
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="15" t="str">
         <f aca="false">CONCATENATE(F247, " арт. ", E247, " цвет ", G247, ". ", J247)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C247" s="16"/>
       <c r="D247" s="3" t="s">
@@ -8701,7 +8657,7 @@
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="15" t="str">
         <f aca="false">CONCATENATE(F248, " арт. ", E248, " цвет ", G248, ". ", J248)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C248" s="16"/>
       <c r="D248" s="3" t="s">
@@ -8722,7 +8678,7 @@
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="15" t="str">
         <f aca="false">CONCATENATE(F249, " арт. ", E249, " цвет ", G249, ". ", J249)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C249" s="16"/>
       <c r="D249" s="3" t="s">
@@ -8743,7 +8699,7 @@
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="15" t="str">
         <f aca="false">CONCATENATE(F250, " арт. ", E250, " цвет ", G250, ". ", J250)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C250" s="16"/>
       <c r="D250" s="3" t="s">
@@ -8764,7 +8720,7 @@
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="15" t="str">
         <f aca="false">CONCATENATE(F251, " арт. ", E251, " цвет ", G251, ". ", J251)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C251" s="16"/>
       <c r="D251" s="3" t="s">
@@ -8785,7 +8741,7 @@
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="15" t="str">
         <f aca="false">CONCATENATE(F252, " арт. ", E252, " цвет ", G252, ". ", J252)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C252" s="16"/>
       <c r="D252" s="3" t="s">
@@ -8806,7 +8762,7 @@
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="15" t="str">
         <f aca="false">CONCATENATE(F253, " арт. ", E253, " цвет ", G253, ". ", J253)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C253" s="16"/>
       <c r="D253" s="3" t="s">
@@ -8827,7 +8783,7 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="15" t="str">
         <f aca="false">CONCATENATE(F254, " арт. ", E254, " цвет ", G254, ". ", J254)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C254" s="16"/>
       <c r="D254" s="3" t="s">
@@ -8848,7 +8804,7 @@
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="15" t="str">
         <f aca="false">CONCATENATE(F255, " арт. ", E255, " цвет ", G255, ". ", J255)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C255" s="16"/>
       <c r="D255" s="3" t="s">
@@ -8869,7 +8825,7 @@
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="15" t="str">
         <f aca="false">CONCATENATE(F256, " арт. ", E256, " цвет ", G256, ". ", J256)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C256" s="16"/>
       <c r="D256" s="3" t="s">
@@ -8890,7 +8846,7 @@
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="15" t="str">
         <f aca="false">CONCATENATE(F257, " арт. ", E257, " цвет ", G257, ". ", J257)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C257" s="16"/>
       <c r="D257" s="3" t="s">
@@ -8911,7 +8867,7 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="15" t="str">
         <f aca="false">CONCATENATE(F258, " арт. ", E258, " цвет ", G258, ". ", J258)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C258" s="16"/>
       <c r="D258" s="3" t="s">
@@ -8932,7 +8888,7 @@
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="15" t="str">
         <f aca="false">CONCATENATE(F259, " арт. ", E259, " цвет ", G259, ". ", J259)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C259" s="16"/>
       <c r="D259" s="3" t="s">
@@ -8953,7 +8909,7 @@
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="15" t="str">
         <f aca="false">CONCATENATE(F260, " арт. ", E260, " цвет ", G260, ". ", J260)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C260" s="16"/>
       <c r="D260" s="3" t="s">
@@ -8974,7 +8930,7 @@
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="15" t="str">
         <f aca="false">CONCATENATE(F261, " арт. ", E261, " цвет ", G261, ". ", J261)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C261" s="16"/>
       <c r="D261" s="3" t="s">
@@ -8995,7 +8951,7 @@
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="15" t="str">
         <f aca="false">CONCATENATE(F262, " арт. ", E262, " цвет ", G262, ". ", J262)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C262" s="16"/>
       <c r="D262" s="3" t="s">
@@ -9016,7 +8972,7 @@
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="15" t="str">
         <f aca="false">CONCATENATE(F263, " арт. ", E263, " цвет ", G263, ". ", J263)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C263" s="16"/>
       <c r="D263" s="3" t="s">
@@ -9037,7 +8993,7 @@
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="15" t="str">
         <f aca="false">CONCATENATE(F264, " арт. ", E264, " цвет ", G264, ". ", J264)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C264" s="16"/>
       <c r="D264" s="3" t="s">
@@ -9058,7 +9014,7 @@
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="15" t="str">
         <f aca="false">CONCATENATE(F265, " арт. ", E265, " цвет ", G265, ". ", J265)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C265" s="16"/>
       <c r="D265" s="3" t="s">
@@ -9079,7 +9035,7 @@
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="15" t="str">
         <f aca="false">CONCATENATE(F266, " арт. ", E266, " цвет ", G266, ". ", J266)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C266" s="16"/>
       <c r="D266" s="3" t="s">
@@ -9100,7 +9056,7 @@
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="15" t="str">
         <f aca="false">CONCATENATE(F267, " арт. ", E267, " цвет ", G267, ". ", J267)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C267" s="16"/>
       <c r="D267" s="3" t="s">
@@ -9121,7 +9077,7 @@
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="15" t="str">
         <f aca="false">CONCATENATE(F268, " арт. ", E268, " цвет ", G268, ". ", J268)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C268" s="16"/>
       <c r="D268" s="3" t="s">
@@ -9142,7 +9098,7 @@
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="15" t="str">
         <f aca="false">CONCATENATE(F269, " арт. ", E269, " цвет ", G269, ". ", J269)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C269" s="16"/>
       <c r="D269" s="3" t="s">
@@ -9163,7 +9119,7 @@
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="15" t="str">
         <f aca="false">CONCATENATE(F270, " арт. ", E270, " цвет ", G270, ". ", J270)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C270" s="16"/>
       <c r="D270" s="3" t="s">
@@ -9184,7 +9140,7 @@
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="15" t="str">
         <f aca="false">CONCATENATE(F271, " арт. ", E271, " цвет ", G271, ". ", J271)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C271" s="16"/>
       <c r="D271" s="3" t="s">
@@ -9205,7 +9161,7 @@
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="15" t="str">
         <f aca="false">CONCATENATE(F272, " арт. ", E272, " цвет ", G272, ". ", J272)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C272" s="16"/>
       <c r="D272" s="3" t="s">
@@ -9226,7 +9182,7 @@
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="15" t="str">
         <f aca="false">CONCATENATE(F273, " арт. ", E273, " цвет ", G273, ". ", J273)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C273" s="16"/>
       <c r="D273" s="3" t="s">
@@ -9247,7 +9203,7 @@
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="15" t="str">
         <f aca="false">CONCATENATE(F274, " арт. ", E274, " цвет ", G274, ". ", J274)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C274" s="16"/>
       <c r="D274" s="3" t="s">
@@ -9268,7 +9224,7 @@
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="15" t="str">
         <f aca="false">CONCATENATE(F275, " арт. ", E275, " цвет ", G275, ". ", J275)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C275" s="16"/>
       <c r="D275" s="3" t="s">
@@ -9289,7 +9245,7 @@
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="15" t="str">
         <f aca="false">CONCATENATE(F276, " арт. ", E276, " цвет ", G276, ". ", J276)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C276" s="16"/>
       <c r="D276" s="3" t="s">
@@ -9310,7 +9266,7 @@
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="15" t="str">
         <f aca="false">CONCATENATE(F277, " арт. ", E277, " цвет ", G277, ". ", J277)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C277" s="16"/>
       <c r="D277" s="3" t="s">
@@ -9331,7 +9287,7 @@
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="15" t="str">
         <f aca="false">CONCATENATE(F278, " арт. ", E278, " цвет ", G278, ". ", J278)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C278" s="16"/>
       <c r="D278" s="3" t="s">
@@ -9352,7 +9308,7 @@
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="15" t="str">
         <f aca="false">CONCATENATE(F279, " арт. ", E279, " цвет ", G279, ". ", J279)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C279" s="16"/>
       <c r="D279" s="3" t="s">
@@ -9373,7 +9329,7 @@
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="15" t="str">
         <f aca="false">CONCATENATE(F280, " арт. ", E280, " цвет ", G280, ". ", J280)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C280" s="16"/>
       <c r="D280" s="3" t="s">
@@ -9394,7 +9350,7 @@
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="15" t="str">
         <f aca="false">CONCATENATE(F281, " арт. ", E281, " цвет ", G281, ". ", J281)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C281" s="16"/>
       <c r="D281" s="3" t="s">
@@ -9415,7 +9371,7 @@
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="15" t="str">
         <f aca="false">CONCATENATE(F282, " арт. ", E282, " цвет ", G282, ". ", J282)</f>
-        <v> арт.  цвет . </v>
+        <v>арт.  цвет .</v>
       </c>
       <c r="C282" s="16"/>
       <c r="D282" s="3" t="s">
@@ -34141,16 +34097,16 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="44.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="24.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="44.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="71.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="33.48"/>
@@ -34228,70 +34184,70 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>105</v>
@@ -34305,7 +34261,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>108</v>
@@ -34468,17 +34424,14 @@
       <c r="B18" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34486,712 +34439,670 @@
         <v>139</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="H19" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="7" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="G20" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="7" t="s">
+      <c r="H20" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="7" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="7" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H22" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="26" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="H23" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="7" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="7" t="s">
+      <c r="H24" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="7" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="7" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H26" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="26" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="H27" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="7" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="G28" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="7" t="s">
+      <c r="H28" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="7" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H29" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="7" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H30" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="26" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="H31" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="7" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="G32" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="7" t="s">
+      <c r="H32" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0"/>
       <c r="E33" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="7" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="7" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>74</v>
@@ -35199,103 +35110,103 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>63</v>
@@ -35303,774 +35214,774 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H111" s="26" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H112" s="26" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="26" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="26" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="26" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="26" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="26" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="26" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="26" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="26" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="26" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="26" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="26" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="26" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="26" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="26" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="26" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="26" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="26" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="26" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="26" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="26" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="26" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="26" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="26" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="26" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="26" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="26" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="26" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="26" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="26" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="26" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="26" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="26" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="26" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="26" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="26" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="26" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="26" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="26" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="26" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="26" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="26" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="26" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="26" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="26" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="26" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="26" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="26" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="26" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="26" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="26" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="26" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="26" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="26" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="26" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="26" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="26" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="26" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="26" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="26" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="26" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="26" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="26" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="26" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="26" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="26" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="26" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="26" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="26" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="26" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="26" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="26" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="26" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="26" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="26" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="26" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="26" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="26" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="26" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="26" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="26" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="26" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="26" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="26" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="26" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="26" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="26" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="26" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="26" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="26" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="26" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="26" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="26" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="26" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="26" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="26" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="26" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="26" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="26" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="26" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="26" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="26" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="26" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="26" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="26" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="26" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="26" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="26" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="26" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="26" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="26" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="26" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="26" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="26" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="26" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="26" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="26" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="26" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="26" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="26" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="26" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="26" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="26" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="26" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="26" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="26" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="26" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="26" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="26" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="26" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36113,18 +36024,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="53.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36132,7 +36043,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36140,7 +36051,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36148,7 +36059,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36156,7 +36067,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36164,7 +36075,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36172,7 +36083,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36180,7 +36091,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36188,7 +36099,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36196,7 +36107,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36204,7 +36115,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36212,7 +36123,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36220,7 +36131,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36228,7 +36139,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36236,7 +36147,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36244,7 +36155,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36252,7 +36163,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36260,7 +36171,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36268,7 +36179,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36276,7 +36187,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36284,7 +36195,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36292,7 +36203,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36300,7 +36211,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36308,7 +36219,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36316,7 +36227,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36324,7 +36235,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36332,7 +36243,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36340,7 +36251,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36348,7 +36259,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36356,7 +36267,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36364,7 +36275,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36372,7 +36283,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36380,7 +36291,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36388,7 +36299,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36396,7 +36307,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36404,7 +36315,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36412,7 +36323,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36420,7 +36331,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36428,7 +36339,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36436,7 +36347,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36444,7 +36355,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36452,7 +36363,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36460,7 +36371,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36468,7 +36379,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36476,7 +36387,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36484,7 +36395,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36492,7 +36403,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36500,7 +36411,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36508,7 +36419,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36516,7 +36427,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36524,7 +36435,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36532,7 +36443,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36540,7 +36451,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36548,7 +36459,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36556,7 +36467,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36564,7 +36475,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36572,7 +36483,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36580,7 +36491,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36588,7 +36499,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36596,7 +36507,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36604,7 +36515,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36612,7 +36523,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36620,7 +36531,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36628,7 +36539,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36636,7 +36547,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36644,7 +36555,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36652,7 +36563,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36660,7 +36571,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36668,7 +36579,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36676,7 +36587,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36684,7 +36595,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36692,7 +36603,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36700,7 +36611,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36708,7 +36619,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36716,7 +36627,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36724,7 +36635,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36732,7 +36643,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36740,7 +36651,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36748,7 +36659,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36756,7 +36667,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36764,7 +36675,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36772,7 +36683,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36780,7 +36691,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36788,7 +36699,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36796,7 +36707,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36804,7 +36715,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36812,7 +36723,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36820,7 +36731,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36828,7 +36739,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36836,7 +36747,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36844,7 +36755,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36852,7 +36763,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36860,7 +36771,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36868,7 +36779,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36876,7 +36787,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36884,7 +36795,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36892,7 +36803,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36900,7 +36811,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36908,7 +36819,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36916,7 +36827,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36924,7 +36835,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36932,7 +36843,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36940,7 +36851,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36948,7 +36859,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36956,7 +36867,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36964,7 +36875,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36972,7 +36883,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36980,7 +36891,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36988,7 +36899,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36996,7 +36907,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37004,7 +36915,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37012,7 +36923,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37020,7 +36931,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37028,7 +36939,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37036,7 +36947,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37044,7 +36955,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37052,7 +36963,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37060,7 +36971,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37068,7 +36979,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37076,7 +36987,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37084,7 +36995,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37092,7 +37003,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37100,7 +37011,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37108,7 +37019,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37116,7 +37027,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37124,7 +37035,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37132,7 +37043,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37140,7 +37051,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37148,7 +37059,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37156,7 +37067,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37164,7 +37075,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37172,7 +37083,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37180,7 +37091,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37188,7 +37099,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37196,7 +37107,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37204,7 +37115,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37212,7 +37123,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37220,7 +37131,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37228,7 +37139,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37236,7 +37147,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37244,7 +37155,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37252,7 +37163,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37260,7 +37171,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37268,7 +37179,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37276,7 +37187,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="688">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -264,6 +264,9 @@
     <t xml:space="preserve">Тип разрешительной документации</t>
   </si>
   <si>
+    <t xml:space="preserve">БОРТИК</t>
+  </si>
+  <si>
     <t xml:space="preserve">БЕЖЕВЫЙ</t>
   </si>
   <si>
@@ -282,381 +285,441 @@
     <t xml:space="preserve">Значение атрибута</t>
   </si>
   <si>
+    <t xml:space="preserve">ДОРОЖКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЖЕВЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕТСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ ОПРЕДЕЛЕНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗДЕЛИЕ ДЛЯ БАНИ И САУНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЮБОЙ ВОЗРАСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКФИЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОВРИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЖЕВЫЙ/СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЗ УКАЗАНИЯ ВОЗРАСТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель / артикул производителя(тип)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМПЛЕКТ ПОСТЕЛЬНОГО БЕЛЬЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАЙКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНВЕРТ ДЛЯ ПРИБОРОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАТИСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛБАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель / Артикул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОСТЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИОМАТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛЖИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕШОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЯЗЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАВОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЫЙ/БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕЛЮР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАМАТРАСНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВУАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГИЛЬЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАПЕРНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЫЙ/СИНИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАФЕЛЬНОЕ ПОЛОТНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАПЕРОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИРЮЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАБАРДИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНДОРРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕЛЁНКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОБЕЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТАРКТИДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДОДЕЯЛЬНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОРДОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАМАСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер Регламента/стандарта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДСТАКАННИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРОНЗОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖЕРСИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРГЕНТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДСТИЛКА ПОД БЛЮДО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАНИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖАККАРД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРМЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВИШНЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЛИРНАЯ ГЛАДЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действие технических регламентов не распространяется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЬНЯНАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АФГАНИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ГОСТЕВОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКО-САТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАГАМЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ВОЛОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРАФИТОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАХРОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНГЛАДЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ ЛИЦА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЁЛТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРБАДОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ НОГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОПОЛИЕСТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАХРЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОСАТИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛИЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ КИЛТ/НАКИДКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗОЛОТОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОФИБРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛАРУСЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ СПОРТИВНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОФРЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЬГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ ТУАЛЕТНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАПУЧИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОДАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕНИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРИХВАТКА КУХОННАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРПИЧНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЛЕТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕРМУДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛОТЕНЦЕ КУХОННОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕТКАНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛГАРИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПРОСТЫНЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЖЕВЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЕТСКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ ОПРЕДЕЛЕНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЮБОЙ ВОЗРАСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АКФИЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАМАТРАСНИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЖЕВЫЙ/СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЗ УКАЗАНИЯ ВОЗРАСТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модель / артикул производителя(тип)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМПЛЕКТ ПОСТЕЛЬНОГО БЕЛЬЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАЙКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ГОСТЕВОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАТИСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛБАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Модель / Артикул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМПЛЕКТ ПОЛОТЕНЕЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИОМАТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛЖИР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЯЗЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЫЙ/БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕЛЮР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛОТЕНЦЕ ПЛЯЖНОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВУАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГИЛЬЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОВРИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЫЙ/СИНИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАФЕЛЬНОЕ ПОЛОТНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГОЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗДЕЛИЕ ДЛЯ БАНИ И САУНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИРЮЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАБАРДИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНДОРРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОРОЖКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОРДОВО-РЫЖИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОБЕЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТАРКТИДА</t>
+    <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРГАНЗА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОСТЫНЯ БАННАЯ/КУПАЛЬНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОФЕЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРИОТЕК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРКАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОТСВАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУШНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАСНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРАЗИЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛФЕТКА ЧАЙНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРЕМОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛЮШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛФЕТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАВАНДОВЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИКОТТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">САЛФЕТКА ПОД ПРИБОРЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">БОРДОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАМАСТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер Регламента/стандарта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛФЕТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРОНЗОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖЕРСИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРГЕНТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
+    <t xml:space="preserve">ЛАЙМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
   </si>
   <si>
     <t xml:space="preserve">СКАТЕРТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">ВАНИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖАККАРД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВИШНЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУЛИРНАЯ ГЛАДЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действие технических регламентов не распространяется</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЬНЯНАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АФГАНИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОРЧИЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКО-САТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАГАМЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРАФИТОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАХРОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНГЛАДЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЁЛТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРБАДОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗЕЛЁНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОПОЛИЕСТР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАХРЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗОЛОТИСТЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОСАТИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛИЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗОЛОТОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОФИБРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛАРУСЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗУМРУДНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИКРОФРЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЬГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАПУЧИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОДАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕНИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРПИЧНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МУЛЕТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕРМУДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРАЛЛОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТКАНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛГАРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРГАНЗА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОФЕЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРИОТЕК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРАСНО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРКАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОТСВАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРАСНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИКЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРАЗИЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КРЕМОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛЮШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАВАНДОВЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИКОТТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАЙМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЛЕОПАРД</t>
   </si>
   <si>
@@ -666,6 +729,9 @@
     <t xml:space="preserve">БУРКИНА-ФАСО</t>
   </si>
   <si>
+    <t xml:space="preserve">ФАРТУК</t>
+  </si>
+  <si>
     <t xml:space="preserve">МАЛИНОВЫЙ</t>
   </si>
   <si>
@@ -675,6 +741,9 @@
     <t xml:space="preserve">БУРУНДИ</t>
   </si>
   <si>
+    <t xml:space="preserve">ХАЛАТ</t>
+  </si>
+  <si>
     <t xml:space="preserve">МЕДНЫЙ</t>
   </si>
   <si>
@@ -684,6 +753,9 @@
     <t xml:space="preserve">БУТАН</t>
   </si>
   <si>
+    <t xml:space="preserve">ЧЕХОЛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">МОЛОЧНЫЙ</t>
   </si>
   <si>
@@ -691,6 +763,9 @@
   </si>
   <si>
     <t xml:space="preserve">ВАНУАТУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮБКА ДЛЯ СТОЛА</t>
   </si>
   <si>
     <t xml:space="preserve">МЯТНЫЙ</t>
@@ -2850,7 +2925,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2965,6 +3040,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3088,16 +3167,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1752"/>
+  <dimension ref="A1:AMJ1831"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="47.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.53"/>
@@ -34035,6 +34114,243 @@
     <row r="1752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1752" s="17"/>
     </row>
+    <row r="1753" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1753" s="17"/>
+    </row>
+    <row r="1754" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1754" s="17"/>
+    </row>
+    <row r="1755" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1755" s="17"/>
+    </row>
+    <row r="1756" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1756" s="17"/>
+    </row>
+    <row r="1757" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1757" s="17"/>
+    </row>
+    <row r="1758" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1758" s="17"/>
+    </row>
+    <row r="1759" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1759" s="17"/>
+    </row>
+    <row r="1760" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1760" s="17"/>
+    </row>
+    <row r="1761" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1761" s="17"/>
+    </row>
+    <row r="1762" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1762" s="17"/>
+    </row>
+    <row r="1763" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1763" s="17"/>
+    </row>
+    <row r="1764" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1764" s="17"/>
+    </row>
+    <row r="1765" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1765" s="17"/>
+    </row>
+    <row r="1766" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1766" s="17"/>
+    </row>
+    <row r="1767" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1767" s="17"/>
+    </row>
+    <row r="1768" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1768" s="17"/>
+    </row>
+    <row r="1769" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1769" s="17"/>
+    </row>
+    <row r="1770" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1770" s="17"/>
+    </row>
+    <row r="1771" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1771" s="17"/>
+    </row>
+    <row r="1772" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1772" s="17"/>
+    </row>
+    <row r="1773" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1773" s="17"/>
+    </row>
+    <row r="1774" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1774" s="17"/>
+    </row>
+    <row r="1775" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1775" s="17"/>
+    </row>
+    <row r="1776" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1776" s="17"/>
+    </row>
+    <row r="1777" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1777" s="17"/>
+    </row>
+    <row r="1778" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1778" s="17"/>
+    </row>
+    <row r="1779" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1779" s="17"/>
+    </row>
+    <row r="1780" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1780" s="17"/>
+    </row>
+    <row r="1781" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1781" s="17"/>
+    </row>
+    <row r="1782" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1782" s="17"/>
+    </row>
+    <row r="1783" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1783" s="17"/>
+    </row>
+    <row r="1784" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1784" s="17"/>
+    </row>
+    <row r="1785" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1785" s="17"/>
+    </row>
+    <row r="1786" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1786" s="17"/>
+    </row>
+    <row r="1787" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1787" s="17"/>
+    </row>
+    <row r="1788" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1788" s="17"/>
+    </row>
+    <row r="1789" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1789" s="17"/>
+    </row>
+    <row r="1790" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1790" s="17"/>
+    </row>
+    <row r="1791" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1791" s="17"/>
+    </row>
+    <row r="1792" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1792" s="17"/>
+    </row>
+    <row r="1793" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1793" s="17"/>
+    </row>
+    <row r="1794" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1794" s="17"/>
+    </row>
+    <row r="1795" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1795" s="17"/>
+    </row>
+    <row r="1796" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1796" s="17"/>
+    </row>
+    <row r="1797" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1797" s="17"/>
+    </row>
+    <row r="1798" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1798" s="17"/>
+    </row>
+    <row r="1799" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1799" s="17"/>
+    </row>
+    <row r="1800" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1800" s="17"/>
+    </row>
+    <row r="1801" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1801" s="17"/>
+    </row>
+    <row r="1802" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1802" s="17"/>
+    </row>
+    <row r="1803" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1803" s="17"/>
+    </row>
+    <row r="1804" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1804" s="17"/>
+    </row>
+    <row r="1805" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1805" s="17"/>
+    </row>
+    <row r="1806" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1806" s="17"/>
+    </row>
+    <row r="1807" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1807" s="17"/>
+    </row>
+    <row r="1808" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1808" s="17"/>
+    </row>
+    <row r="1809" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1809" s="17"/>
+    </row>
+    <row r="1810" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1810" s="17"/>
+    </row>
+    <row r="1811" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1811" s="17"/>
+    </row>
+    <row r="1812" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1812" s="17"/>
+    </row>
+    <row r="1813" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1813" s="17"/>
+    </row>
+    <row r="1814" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1814" s="17"/>
+    </row>
+    <row r="1815" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1815" s="17"/>
+    </row>
+    <row r="1816" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1816" s="17"/>
+    </row>
+    <row r="1817" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1817" s="17"/>
+    </row>
+    <row r="1818" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1818" s="17"/>
+    </row>
+    <row r="1819" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1819" s="17"/>
+    </row>
+    <row r="1820" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1820" s="17"/>
+    </row>
+    <row r="1821" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1821" s="17"/>
+    </row>
+    <row r="1822" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1822" s="17"/>
+    </row>
+    <row r="1823" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1823" s="17"/>
+    </row>
+    <row r="1824" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1824" s="17"/>
+    </row>
+    <row r="1825" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1825" s="17"/>
+    </row>
+    <row r="1826" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1826" s="17"/>
+    </row>
+    <row r="1827" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1827" s="17"/>
+    </row>
+    <row r="1828" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1828" s="17"/>
+    </row>
+    <row r="1829" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1829" s="17"/>
+    </row>
+    <row r="1830" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1830" s="17"/>
+    </row>
+    <row r="1831" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1831" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
@@ -34042,10 +34358,6 @@
     <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F1752" type="list">
-      <formula1>Справочники!$D$2:$D$33</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6" type="textLength">
       <formula1>1025</formula1>
       <formula2>0</formula2>
@@ -34078,6 +34390,10 @@
       <formula1>Справочники!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F1831" type="list">
+      <formula1>Справочники!$D$2:$D$41</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34096,11 +34412,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.34"/>
@@ -34138,45 +34454,45 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>64</v>
@@ -34184,925 +34500,996 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0"/>
+      <c r="D33" s="29" t="s">
+        <v>213</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>74</v>
@@ -35110,103 +35497,103 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>63</v>
@@ -35214,774 +35601,774 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H111" s="26" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H112" s="26" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="26" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="26" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="26" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="26" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="26" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="26" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="26" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="26" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="26" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="26" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="26" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="26" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="26" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="26" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="26" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="26" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="26" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="26" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="26" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="26" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="26" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="26" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="26" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="26" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="26" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="26" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="26" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="26" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="26" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="26" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="26" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="26" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="26" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="26" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="26" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="26" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="26" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="26" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="26" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="26" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="26" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="26" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="26" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="26" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="26" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="26" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="26" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="26" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="26" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="26" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="26" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="26" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="26" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="26" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="26" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="26" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="26" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="26" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="26" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="26" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="26" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="26" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="26" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="26" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="26" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="26" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="26" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="26" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="26" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="26" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="26" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="26" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="26" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="26" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="26" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="26" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="26" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="26" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="26" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="26" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="26" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="26" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="26" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="26" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="26" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="26" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="26" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="26" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="26" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="26" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="26" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="26" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="26" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="26" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="26" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="26" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="26" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="26" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="26" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="26" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="26" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="26" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="26" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="26" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="26" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="26" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="26" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="26" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="26" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="26" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="26" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="26" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="26" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="26" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="26" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="26" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="26" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="26" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="26" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="26" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="26" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="26" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="26" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="26" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="26" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="26" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="26" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="26" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="26" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="26" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36024,26 +36411,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="53.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>519</v>
+      <c r="A1" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="n">
+      <c r="A2" s="32" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>520</v>
+      <c r="B2" s="33" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36051,7 +36438,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36059,31 +36446,31 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="n">
+      <c r="A5" s="32" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>523</v>
+      <c r="B5" s="33" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>524</v>
+      <c r="B6" s="34" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>525</v>
+      <c r="B7" s="34" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36091,7 +36478,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36099,7 +36486,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36107,7 +36494,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36115,15 +36502,15 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="n">
+      <c r="A12" s="32" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>530</v>
+      <c r="B12" s="33" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36131,7 +36518,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36139,7 +36526,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36147,7 +36534,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36155,15 +36542,15 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="n">
+      <c r="A17" s="32" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>535</v>
+      <c r="B17" s="33" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36171,7 +36558,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36179,7 +36566,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36187,7 +36574,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36195,7 +36582,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36203,7 +36590,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36211,15 +36598,15 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="n">
+      <c r="A24" s="32" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>542</v>
+      <c r="B24" s="33" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36227,7 +36614,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36235,7 +36622,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36243,7 +36630,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36251,7 +36638,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36259,7 +36646,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36267,7 +36654,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36275,7 +36662,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36283,7 +36670,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36291,7 +36678,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36299,7 +36686,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36307,7 +36694,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36315,7 +36702,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36323,7 +36710,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36331,7 +36718,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36339,7 +36726,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36347,7 +36734,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36355,7 +36742,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36363,7 +36750,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36371,7 +36758,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36379,7 +36766,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36387,7 +36774,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36395,7 +36782,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36403,7 +36790,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36411,7 +36798,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36419,15 +36806,15 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31" t="n">
+      <c r="A50" s="32" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>568</v>
+      <c r="B50" s="33" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36435,7 +36822,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36443,7 +36830,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36451,7 +36838,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36459,7 +36846,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36467,7 +36854,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36475,7 +36862,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36483,15 +36870,15 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="31" t="n">
+      <c r="A58" s="32" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>576</v>
+      <c r="B58" s="35" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36499,7 +36886,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36507,15 +36894,15 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="31" t="n">
+      <c r="A61" s="32" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="32" t="s">
-        <v>579</v>
+      <c r="B61" s="33" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36523,7 +36910,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36531,7 +36918,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36539,7 +36926,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36547,7 +36934,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36555,7 +36942,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36563,7 +36950,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36571,7 +36958,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36579,15 +36966,15 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31" t="n">
+      <c r="A70" s="32" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="32" t="s">
-        <v>588</v>
+      <c r="B70" s="33" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36595,7 +36982,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36603,7 +36990,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36611,7 +36998,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36619,15 +37006,15 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31" t="n">
+      <c r="A75" s="32" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="32" t="s">
-        <v>593</v>
+      <c r="B75" s="33" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36635,7 +37022,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36643,7 +37030,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36651,7 +37038,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36659,7 +37046,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36667,7 +37054,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36675,7 +37062,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36683,7 +37070,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36691,7 +37078,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36699,7 +37086,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36707,7 +37094,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36715,7 +37102,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36723,7 +37110,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36731,7 +37118,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36739,7 +37126,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36747,15 +37134,15 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="31" t="n">
+      <c r="A91" s="32" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="32" t="s">
-        <v>608</v>
+      <c r="B91" s="33" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36763,7 +37150,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36771,7 +37158,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36779,7 +37166,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36787,7 +37174,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36795,7 +37182,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36803,7 +37190,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36811,7 +37198,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36819,7 +37206,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36827,7 +37214,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36835,7 +37222,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36843,7 +37230,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36851,7 +37238,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36859,7 +37246,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36867,7 +37254,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36875,7 +37262,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36883,7 +37270,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36891,7 +37278,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36899,7 +37286,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36907,7 +37294,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36915,23 +37302,23 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="35" t="n">
+      <c r="A112" s="36" t="n">
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="35" t="n">
+      <c r="A113" s="36" t="n">
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36939,7 +37326,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36947,7 +37334,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36955,7 +37342,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36963,7 +37350,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36971,7 +37358,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36979,7 +37366,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36987,7 +37374,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36995,7 +37382,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37003,7 +37390,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37011,7 +37398,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37019,7 +37406,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37027,7 +37414,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37035,7 +37422,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37043,7 +37430,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37051,7 +37438,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37059,7 +37446,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37067,7 +37454,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37075,15 +37462,15 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="31" t="n">
+      <c r="A132" s="32" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="32" t="s">
-        <v>649</v>
+      <c r="B132" s="33" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37091,7 +37478,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37099,7 +37486,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37107,7 +37494,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37115,7 +37502,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37123,15 +37510,15 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="31" t="n">
+      <c r="A138" s="32" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="32" t="s">
-        <v>655</v>
+      <c r="B138" s="33" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37139,7 +37526,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37147,7 +37534,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37155,7 +37542,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37163,7 +37550,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37171,7 +37558,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37179,7 +37566,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37187,7 +37574,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="690">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1263,7 +1263,13 @@
     <t xml:space="preserve">ЛИТВА</t>
   </si>
   <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЁНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
@@ -3170,10 +3176,10 @@
   <dimension ref="A1:AMJ1831"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.42"/>
@@ -34412,11 +34418,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.34"/>
@@ -35712,663 +35718,669 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="H111" s="26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="7" t="s">
+        <v>413</v>
+      </c>
       <c r="H112" s="26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="26" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="26" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="26" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="26" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="26" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="26" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="26" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="26" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="26" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="26" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="26" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="26" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="26" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="26" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="26" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="26" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="26" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="26" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="26" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="26" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="26" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="26" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="26" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="26" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="26" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="26" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="26" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="26" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="26" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="26" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="26" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="26" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="26" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="26" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="26" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="26" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="26" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="26" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="26" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="26" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="26" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="26" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="26" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="26" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="26" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="26" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="26" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="26" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="26" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="26" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="26" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="26" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="26" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="26" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="26" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="26" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="26" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="26" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="26" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="26" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="26" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="26" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="26" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="26" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="26" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36411,7 +36423,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="53.04"/>
@@ -36419,10 +36431,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36430,7 +36442,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36438,7 +36450,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36446,7 +36458,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36454,7 +36466,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36462,7 +36474,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36470,7 +36482,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36478,7 +36490,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36486,7 +36498,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36494,7 +36506,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36502,7 +36514,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36510,7 +36522,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36518,7 +36530,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36526,7 +36538,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36534,7 +36546,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36542,7 +36554,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36550,7 +36562,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36558,7 +36570,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36566,7 +36578,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36574,7 +36586,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36582,7 +36594,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36590,7 +36602,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36598,7 +36610,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36606,7 +36618,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36614,7 +36626,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36622,7 +36634,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36630,7 +36642,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36638,7 +36650,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36646,7 +36658,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36654,7 +36666,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36662,7 +36674,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36670,7 +36682,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36678,7 +36690,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36686,7 +36698,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36694,7 +36706,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36702,7 +36714,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36710,7 +36722,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36718,7 +36730,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36726,7 +36738,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36734,7 +36746,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36742,7 +36754,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36750,7 +36762,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36758,7 +36770,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36766,7 +36778,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36774,7 +36786,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36782,7 +36794,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36790,7 +36802,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36798,7 +36810,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36806,7 +36818,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36814,7 +36826,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36822,7 +36834,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36830,7 +36842,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36838,7 +36850,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36846,7 +36858,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36854,7 +36866,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36862,7 +36874,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36870,7 +36882,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36878,7 +36890,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36886,7 +36898,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36894,7 +36906,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36902,7 +36914,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36910,7 +36922,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36918,7 +36930,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36926,7 +36938,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36934,7 +36946,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36942,7 +36954,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36950,7 +36962,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36958,7 +36970,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36966,7 +36978,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36974,7 +36986,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36982,7 +36994,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36990,7 +37002,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36998,7 +37010,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37006,7 +37018,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37014,7 +37026,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37022,7 +37034,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37030,7 +37042,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37038,7 +37050,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37046,7 +37058,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37054,7 +37066,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37062,7 +37074,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37070,7 +37082,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37078,7 +37090,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37086,7 +37098,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37094,7 +37106,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37102,7 +37114,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37110,7 +37122,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37118,7 +37130,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37126,7 +37138,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37134,7 +37146,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37142,7 +37154,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37150,7 +37162,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37158,7 +37170,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37166,7 +37178,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37174,7 +37186,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37182,7 +37194,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37190,7 +37202,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37198,7 +37210,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37206,7 +37218,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37214,7 +37226,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37222,7 +37234,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37230,7 +37242,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37238,7 +37250,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37246,7 +37258,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37254,7 +37266,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37262,7 +37274,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37270,7 +37282,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37278,7 +37290,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37286,7 +37298,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37294,7 +37306,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37302,7 +37314,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37310,7 +37322,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37318,7 +37330,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37326,7 +37338,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37334,7 +37346,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37342,7 +37354,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37350,7 +37362,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37358,7 +37370,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37366,7 +37378,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37374,7 +37386,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37382,7 +37394,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37390,7 +37402,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37398,7 +37410,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37406,7 +37418,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37414,7 +37426,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37422,7 +37434,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37430,7 +37442,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37438,7 +37450,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37446,7 +37458,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37454,7 +37466,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37462,7 +37474,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37470,7 +37482,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37478,7 +37490,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37486,7 +37498,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37494,7 +37506,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37502,7 +37514,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37510,7 +37522,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37518,7 +37530,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37526,7 +37538,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37534,7 +37546,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37542,7 +37554,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37550,7 +37562,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37558,7 +37570,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37566,7 +37578,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37574,7 +37586,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="691">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМУФЛЯЖНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">МАВРИКИЙ</t>
@@ -3176,10 +3179,10 @@
   <dimension ref="A1:AMJ1831"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.42"/>
@@ -34419,10 +34422,10 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
+      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.34"/>
@@ -35734,653 +35737,656 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="H113" s="26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="26" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="26" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="26" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="26" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="26" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="26" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="26" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="26" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="26" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="26" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="26" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="26" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="26" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="26" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="26" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="26" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36399,7 +36405,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E112">
+  <conditionalFormatting sqref="E2:E113">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36423,7 +36429,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="53.04"/>
@@ -36431,10 +36437,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36442,7 +36448,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36450,7 +36456,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36458,7 +36464,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36466,7 +36472,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36474,7 +36480,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36482,7 +36488,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36490,7 +36496,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36498,7 +36504,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36506,7 +36512,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36514,7 +36520,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36522,7 +36528,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36530,7 +36536,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36538,7 +36544,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36546,7 +36552,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36554,7 +36560,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36562,7 +36568,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36570,7 +36576,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36578,7 +36584,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36586,7 +36592,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36594,7 +36600,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36602,7 +36608,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36610,7 +36616,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36618,7 +36624,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36626,7 +36632,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36634,7 +36640,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36642,7 +36648,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36650,7 +36656,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36658,7 +36664,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36666,7 +36672,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36674,7 +36680,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36682,7 +36688,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36690,7 +36696,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36698,7 +36704,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36706,7 +36712,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36714,7 +36720,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36722,7 +36728,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36730,7 +36736,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36738,7 +36744,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36746,7 +36752,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36754,7 +36760,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36762,7 +36768,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36770,7 +36776,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36778,7 +36784,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36786,7 +36792,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36794,7 +36800,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36802,7 +36808,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36810,7 +36816,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36818,7 +36824,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36826,7 +36832,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36834,7 +36840,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36842,7 +36848,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36850,7 +36856,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36858,7 +36864,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36866,7 +36872,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36874,7 +36880,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36882,7 +36888,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36890,7 +36896,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36898,7 +36904,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36906,7 +36912,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36914,7 +36920,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36922,7 +36928,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36930,7 +36936,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36938,7 +36944,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36946,7 +36952,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36954,7 +36960,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36962,7 +36968,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36970,7 +36976,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36978,7 +36984,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36986,7 +36992,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36994,7 +37000,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37002,7 +37008,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37010,7 +37016,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37018,7 +37024,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37026,7 +37032,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37034,7 +37040,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37042,7 +37048,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37050,7 +37056,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37058,7 +37064,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37066,7 +37072,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37074,7 +37080,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37082,7 +37088,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37090,7 +37096,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37098,7 +37104,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37106,7 +37112,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37114,7 +37120,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37122,7 +37128,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37130,7 +37136,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37138,7 +37144,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37146,7 +37152,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37154,7 +37160,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37162,7 +37168,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37170,7 +37176,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37178,7 +37184,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37186,7 +37192,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37194,7 +37200,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37202,7 +37208,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37210,7 +37216,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37218,7 +37224,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37226,7 +37232,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37234,7 +37240,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37242,7 +37248,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37250,7 +37256,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37258,7 +37264,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37266,7 +37272,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37274,7 +37280,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37282,7 +37288,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37290,7 +37296,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37298,7 +37304,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37306,7 +37312,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37314,7 +37320,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37322,7 +37328,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37330,7 +37336,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37338,7 +37344,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37346,7 +37352,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37354,7 +37360,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37362,7 +37368,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37370,7 +37376,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37378,7 +37384,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37386,7 +37392,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37394,7 +37400,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37402,7 +37408,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37410,7 +37416,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37418,7 +37424,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37426,7 +37432,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37434,7 +37440,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37442,7 +37448,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37450,7 +37456,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37458,7 +37464,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37466,7 +37472,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37474,7 +37480,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37482,7 +37488,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37490,7 +37496,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37498,7 +37504,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37506,7 +37512,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37514,7 +37520,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37522,7 +37528,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37530,7 +37536,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37538,7 +37544,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37546,7 +37552,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37554,7 +37560,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37562,7 +37568,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37570,7 +37576,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37578,7 +37584,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37586,7 +37592,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="690">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -195,7 +195,7 @@
     <t xml:space="preserve">5gb</t>
   </si>
   <si>
-    <t xml:space="preserve">САЛФЕТКИ ДЛЯ СТЕКЛЯННОЙ ПОСУДЫ</t>
+    <t xml:space="preserve">ИЗДЕЛИЕ ДЛЯ БАНИ И САУНЫ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЛЫЙ/СЕРЫЙ</t>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t xml:space="preserve">АВСТРАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗДЕЛИЕ ДЛЯ БАНИ И САУНЫ</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
@@ -3179,10 +3176,10 @@
   <dimension ref="A1:AMJ1831"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.42"/>
@@ -3596,7 +3593,7 @@
       </c>
       <c r="B7" s="15" t="str">
         <f aca="false">CONCATENATE(F7, " ", C7, " арт. ", E7, " цвет ", G7, ". ", J7)</f>
-        <v>САЛФЕТКИ ДЛЯ СТЕКЛЯННОЙ ПОСУДЫ Meerkat арт. 5gb цвет БЕЛЫЙ/СЕРЫЙ. сатин</v>
+        <v>ИЗДЕЛИЕ ДЛЯ БАНИ И САУНЫ Meerkat арт. 5gb цвет БЕЛЫЙ/СЕРЫЙ. сатин</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>52</v>
@@ -34425,7 +34422,7 @@
       <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.34"/>
@@ -34509,445 +34506,445 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="26" t="s">
         <v>108</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>112</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="26" t="s">
         <v>172</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34955,550 +34952,550 @@
         <v>69</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="26" t="s">
         <v>253</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="26" t="s">
         <v>256</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="26" t="s">
         <v>265</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="26" t="s">
         <v>268</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="26" t="s">
         <v>274</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="26" t="s">
         <v>277</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="26" t="s">
         <v>280</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="26" t="s">
         <v>286</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="26" t="s">
         <v>292</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="26" t="s">
         <v>295</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="26" t="s">
         <v>301</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="26" t="s">
         <v>304</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="26" t="s">
         <v>307</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="26" t="s">
         <v>310</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="26" t="s">
         <v>313</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="26" t="s">
         <v>316</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="26" t="s">
         <v>319</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="26" t="s">
         <v>322</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H67" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H68" s="26" t="s">
         <v>327</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H69" s="26" t="s">
         <v>329</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H70" s="26" t="s">
         <v>331</v>
-      </c>
-      <c r="H70" s="26" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" s="26" t="s">
         <v>333</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H72" s="26" t="s">
         <v>335</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H73" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H75" s="26" t="s">
         <v>341</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" s="26" t="s">
         <v>343</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H77" s="26" t="s">
         <v>345</v>
-      </c>
-      <c r="H77" s="26" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H78" s="26" t="s">
         <v>347</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H79" s="26" t="s">
         <v>349</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H80" s="26" t="s">
         <v>351</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H81" s="26" t="s">
         <v>353</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H82" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="H82" s="26" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>74</v>
@@ -35506,103 +35503,103 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H84" s="26" t="s">
         <v>358</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H85" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="H85" s="26" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H86" s="26" t="s">
         <v>362</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H87" s="26" t="s">
         <v>364</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H88" s="26" t="s">
         <v>366</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H89" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="H89" s="26" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H90" s="26" t="s">
         <v>370</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H91" s="26" t="s">
         <v>372</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H92" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H93" s="26" t="s">
         <v>376</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H94" s="26" t="s">
         <v>378</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H95" s="26" t="s">
         <v>380</v>
-      </c>
-      <c r="H95" s="26" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>63</v>
@@ -35610,783 +35607,783 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H97" s="26" t="s">
         <v>383</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H98" s="26" t="s">
         <v>385</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H99" s="26" t="s">
         <v>387</v>
-      </c>
-      <c r="H99" s="26" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H100" s="26" t="s">
         <v>389</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H101" s="26" t="s">
         <v>391</v>
-      </c>
-      <c r="H101" s="26" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H102" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H103" s="26" t="s">
         <v>395</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>397</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>399</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>401</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H107" s="26" t="s">
         <v>403</v>
-      </c>
-      <c r="H107" s="26" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H108" s="26" t="s">
         <v>405</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H109" s="26" t="s">
         <v>407</v>
-      </c>
-      <c r="H109" s="26" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H110" s="26" t="s">
         <v>409</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H111" s="26" t="s">
         <v>411</v>
-      </c>
-      <c r="H111" s="26" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H112" s="26" t="s">
         <v>413</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H113" s="26" t="s">
         <v>415</v>
-      </c>
-      <c r="H113" s="26" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="26" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36429,7 +36426,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="53.04"/>
@@ -36437,10 +36434,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>546</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36448,7 +36445,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36456,7 +36453,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36464,7 +36461,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36472,7 +36469,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36480,7 +36477,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36488,7 +36485,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36496,7 +36493,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36504,7 +36501,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36512,7 +36509,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36520,7 +36517,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36528,7 +36525,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36536,7 +36533,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36544,7 +36541,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36552,7 +36549,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36560,7 +36557,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36568,7 +36565,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36576,7 +36573,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36584,7 +36581,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36592,7 +36589,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36600,7 +36597,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36608,7 +36605,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36616,7 +36613,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36624,7 +36621,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36632,7 +36629,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36640,7 +36637,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36648,7 +36645,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36656,7 +36653,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36664,7 +36661,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36672,7 +36669,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36680,7 +36677,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36688,7 +36685,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36696,7 +36693,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36704,7 +36701,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36712,7 +36709,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36720,7 +36717,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36728,7 +36725,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36736,7 +36733,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36744,7 +36741,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36752,7 +36749,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36760,7 +36757,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36768,7 +36765,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36776,7 +36773,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36784,7 +36781,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36792,7 +36789,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36800,7 +36797,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36808,7 +36805,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36816,7 +36813,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36824,7 +36821,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36832,7 +36829,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36840,7 +36837,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36848,7 +36845,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36856,7 +36853,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36864,7 +36861,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36872,7 +36869,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36880,7 +36877,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36888,7 +36885,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36896,7 +36893,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36904,7 +36901,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36912,7 +36909,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36920,7 +36917,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36928,7 +36925,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36936,7 +36933,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36944,7 +36941,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36952,7 +36949,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36960,7 +36957,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36968,7 +36965,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36976,7 +36973,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36984,7 +36981,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36992,7 +36989,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37000,7 +36997,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37008,7 +37005,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37016,7 +37013,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37024,7 +37021,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37032,7 +37029,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37040,7 +37037,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37048,7 +37045,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37056,7 +37053,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37064,7 +37061,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37072,7 +37069,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37080,7 +37077,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37088,7 +37085,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37096,7 +37093,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37104,7 +37101,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37112,7 +37109,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37120,7 +37117,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37128,7 +37125,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37136,7 +37133,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37144,7 +37141,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37152,7 +37149,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37160,7 +37157,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37168,7 +37165,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37176,7 +37173,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37184,7 +37181,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37192,7 +37189,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37200,7 +37197,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37208,7 +37205,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37216,7 +37213,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37224,7 +37221,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37232,7 +37229,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37240,7 +37237,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37248,7 +37245,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37256,7 +37253,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37264,7 +37261,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37272,7 +37269,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37280,7 +37277,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37288,7 +37285,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37296,7 +37293,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37304,7 +37301,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37312,7 +37309,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37320,7 +37317,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37328,7 +37325,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37336,7 +37333,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37344,7 +37341,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37352,7 +37349,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37360,7 +37357,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37368,7 +37365,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37376,7 +37373,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37384,7 +37381,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37392,7 +37389,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37400,7 +37397,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37408,7 +37405,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37416,7 +37413,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37424,7 +37421,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37432,7 +37429,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37440,7 +37437,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37448,7 +37445,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37456,7 +37453,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37464,7 +37461,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37472,7 +37469,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37480,7 +37477,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37488,7 +37485,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37496,7 +37493,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37504,7 +37501,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37512,7 +37509,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37520,7 +37517,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37528,7 +37525,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37536,7 +37533,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37544,7 +37541,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37552,7 +37549,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37560,7 +37557,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37568,7 +37565,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37576,7 +37573,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37584,7 +37581,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37592,7 +37589,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/белье_по комплектам.xlsx
+++ b/app/download_dir/system_files/белье_по комплектам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="689">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -222,7 +222,7 @@
     <t xml:space="preserve">КИТАЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -276,9 +276,6 @@
     <t xml:space="preserve">АБХАЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование атрибута</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
     <t xml:space="preserve">АВСТРАЛИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
     <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
   </si>
   <si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">КОВРИК</t>
@@ -3175,11 +3172,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1831"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.42"/>
@@ -34385,7 +34382,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q7:Q1701" type="list">
-      <formula1>Справочники!$I$2:$I$4</formula1>
+      <formula1>Справочники!$I$2:$I$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P7:P1695" type="list">
@@ -34418,11 +34415,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="49.34"/>
@@ -34475,33 +34472,33 @@
         <v>81</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34520,431 +34517,428 @@
       <c r="H4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="26" t="s">
         <v>103</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34952,550 +34946,550 @@
         <v>69</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="26" t="s">
         <v>226</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="26" t="s">
         <v>242</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="26" t="s">
         <v>252</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="26" t="s">
         <v>258</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="26" t="s">
         <v>267</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="26" t="s">
         <v>270</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="26" t="s">
         <v>276</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="26" t="s">
         <v>279</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="26" t="s">
         <v>282</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="26" t="s">
         <v>288</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="26" t="s">
         <v>291</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="26" t="s">
         <v>294</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="26" t="s">
         <v>300</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="26" t="s">
         <v>303</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="26" t="s">
         <v>306</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="26" t="s">
         <v>309</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="26" t="s">
         <v>312</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="26" t="s">
         <v>315</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="26" t="s">
         <v>318</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="26" t="s">
         <v>321</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H67" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="26" t="s">
         <v>326</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" s="26" t="s">
         <v>328</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H70" s="26" t="s">
         <v>330</v>
-      </c>
-      <c r="H70" s="26" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H71" s="26" t="s">
         <v>332</v>
-      </c>
-      <c r="H71" s="26" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" s="26" t="s">
         <v>334</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H73" s="26" t="s">
         <v>336</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>338</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H75" s="26" t="s">
         <v>340</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H76" s="26" t="s">
         <v>342</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H77" s="26" t="s">
         <v>344</v>
-      </c>
-      <c r="H77" s="26" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H78" s="26" t="s">
         <v>346</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H79" s="26" t="s">
         <v>348</v>
-      </c>
-      <c r="H79" s="26" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H80" s="26" t="s">
         <v>350</v>
-      </c>
-      <c r="H80" s="26" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H81" s="26" t="s">
         <v>352</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H82" s="26" t="s">
         <v>354</v>
-      </c>
-      <c r="H82" s="26" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>74</v>
@@ -35503,103 +35497,103 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H84" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H85" s="26" t="s">
         <v>359</v>
-      </c>
-      <c r="H85" s="26" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H86" s="26" t="s">
         <v>361</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H87" s="26" t="s">
         <v>363</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H88" s="26" t="s">
         <v>365</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H89" s="26" t="s">
         <v>367</v>
-      </c>
-      <c r="H89" s="26" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H90" s="26" t="s">
         <v>369</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H91" s="26" t="s">
         <v>371</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H92" s="26" t="s">
         <v>373</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H93" s="26" t="s">
         <v>375</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H94" s="26" t="s">
         <v>377</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H95" s="26" t="s">
         <v>379</v>
-      </c>
-      <c r="H95" s="26" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>63</v>
@@ -35607,783 +35601,783 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H97" s="26" t="s">
         <v>382</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H98" s="26" t="s">
         <v>384</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H99" s="26" t="s">
         <v>386</v>
-      </c>
-      <c r="H99" s="26" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H100" s="26" t="s">
         <v>388</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H101" s="26" t="s">
         <v>390</v>
-      </c>
-      <c r="H101" s="26" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H102" s="26" t="s">
         <v>392</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H103" s="26" t="s">
         <v>394</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>396</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>398</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>400</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H107" s="26" t="s">
         <v>402</v>
-      </c>
-      <c r="H107" s="26" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H108" s="26" t="s">
         <v>404</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H109" s="26" t="s">
         <v>406</v>
-      </c>
-      <c r="H109" s="26" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H110" s="26" t="s">
         <v>408</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H111" s="26" t="s">
         <v>410</v>
-      </c>
-      <c r="H111" s="26" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H112" s="26" t="s">
         <v>412</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H113" s="26" t="s">
         <v>414</v>
-      </c>
-      <c r="H113" s="26" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H168" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="26" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="26" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36426,7 +36420,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="53.04"/>
@@ -36434,10 +36428,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>545</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36445,7 +36439,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36453,7 +36447,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36461,7 +36455,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36469,7 +36463,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36477,7 +36471,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36485,7 +36479,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36493,7 +36487,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36501,7 +36495,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36509,7 +36503,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36517,7 +36511,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36525,7 +36519,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36533,7 +36527,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36541,7 +36535,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36549,7 +36543,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36557,7 +36551,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36565,7 +36559,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36573,7 +36567,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36581,7 +36575,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36589,7 +36583,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36597,7 +36591,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36605,7 +36599,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36613,7 +36607,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36621,7 +36615,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36629,7 +36623,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36637,7 +36631,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36645,7 +36639,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36653,7 +36647,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36661,7 +36655,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36669,7 +36663,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36677,7 +36671,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36685,7 +36679,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36693,7 +36687,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36701,7 +36695,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36709,7 +36703,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36717,7 +36711,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36725,7 +36719,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36733,7 +36727,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36741,7 +36735,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36749,7 +36743,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36757,7 +36751,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36765,7 +36759,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36773,7 +36767,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36781,7 +36775,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36789,7 +36783,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36797,7 +36791,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36805,7 +36799,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36813,7 +36807,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36821,7 +36815,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36829,7 +36823,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36837,7 +36831,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36845,7 +36839,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36853,7 +36847,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36861,7 +36855,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36869,7 +36863,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36877,7 +36871,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36885,7 +36879,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36893,7 +36887,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36901,7 +36895,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36909,7 +36903,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36917,7 +36911,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36925,7 +36919,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36933,7 +36927,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36941,7 +36935,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36949,7 +36943,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36957,7 +36951,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36965,7 +36959,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36973,7 +36967,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36981,7 +36975,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36989,7 +36983,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36997,7 +36991,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37005,7 +36999,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37013,7 +37007,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37021,7 +37015,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37029,7 +37023,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37037,7 +37031,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37045,7 +37039,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37053,7 +37047,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37061,7 +37055,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37069,7 +37063,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37077,7 +37071,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37085,7 +37079,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37093,7 +37087,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37101,7 +37095,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37109,7 +37103,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37117,7 +37111,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37125,7 +37119,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37133,7 +37127,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37141,7 +37135,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37149,7 +37143,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37157,7 +37151,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37165,7 +37159,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37173,7 +37167,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37181,7 +37175,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37189,7 +37183,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37197,7 +37191,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37205,7 +37199,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37213,7 +37207,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37221,7 +37215,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37229,7 +37223,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37237,7 +37231,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37245,7 +37239,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37253,7 +37247,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37261,7 +37255,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37269,7 +37263,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37277,7 +37271,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37285,7 +37279,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37293,7 +37287,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37301,7 +37295,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37309,7 +37303,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37317,7 +37311,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37325,7 +37319,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37333,7 +37327,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37341,7 +37335,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37349,7 +37343,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37357,7 +37351,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37365,7 +37359,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37373,7 +37367,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37381,7 +37375,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37389,7 +37383,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37397,7 +37391,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37405,7 +37399,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37413,7 +37407,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37421,7 +37415,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37429,7 +37423,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37437,7 +37431,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37445,7 +37439,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37453,7 +37447,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37461,7 +37455,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37469,7 +37463,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37477,7 +37471,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37485,7 +37479,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37493,7 +37487,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37501,7 +37495,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37509,7 +37503,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37517,7 +37511,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37525,7 +37519,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37533,7 +37527,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37541,7 +37535,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37549,7 +37543,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37557,7 +37551,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37565,7 +37559,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37573,7 +37567,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37581,7 +37575,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37589,7 +37583,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
